--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343406B8-88C5-462B-A386-FB314FBCAC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372DBA3-BBD3-49F6-9EC8-D377CD5A635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="1650" windowWidth="14925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Jaccard Index</t>
+  </si>
+  <si>
+    <t>Fed on MoNu</t>
+  </si>
+  <si>
+    <t>FedAvg (External Test Data)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,507 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -629,15 +1135,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:J9"/>
+  <dimension ref="D4:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
@@ -666,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="4:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -689,7 +1195,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="7" spans="4:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -712,7 +1218,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
@@ -758,38 +1264,110 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
+    <row r="10" spans="4:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.873</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E6:E9">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="E6:E9 E13">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="F6:F9 F13 I6:I9 I13">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G9">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="G6:G9 G13">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+      <formula>0.8115</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.8115</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H9">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="H6:H9 H13">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I9">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
-      <formula>0.8</formula>
+  <conditionalFormatting sqref="J6:J9 J13">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J9">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
-      <formula>0.68</formula>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0.891</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0.22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.227</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372DBA3-BBD3-49F6-9EC8-D377CD5A635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F6A92-67A6-487E-A3E1-13A77D2810CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="1650" windowWidth="14925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="2235" windowWidth="14925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Accuracy</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>FedAvg (External Test Data)</t>
+  </si>
+  <si>
+    <t>FedMix (External Test Data)</t>
+  </si>
+  <si>
+    <t>FedMix</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,1227 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="185">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1135,21 +2361,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:J19"/>
+  <dimension ref="D4:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="14" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +2400,29 @@
       <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1194,8 +2444,29 @@
       <c r="J6" s="1">
         <v>0.70099999999999996</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,8 +2488,29 @@
       <c r="J7" s="1">
         <v>0.66500000000000004</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="S7" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="8" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +2532,29 @@
       <c r="J8" s="1">
         <v>0.68700000000000006</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.57299999999999995</v>
+      </c>
     </row>
-    <row r="9" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1263,9 +2576,30 @@
       <c r="J9" s="1">
         <v>0.65900000000000003</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.23200000000000001</v>
+      </c>
     </row>
-    <row r="10" spans="4:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1287,8 +2621,29 @@
       <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1309,64 +2664,133 @@
       </c>
       <c r="J13" s="1">
         <v>0.63200000000000001</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E6:E9 E13">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9 F13 I6:I9 I13">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="greaterThan">
+      <formula>0.891</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F9 I6:I9 F13 I13">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9 G13">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="greaterThan">
       <formula>0.8115</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H13">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J9 J13">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0.891</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
       <formula>0.22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="greaterThan">
       <formula>0.227</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J9 J13">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N9 N13">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O9 R6:R9 O13 R13">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P9 P13">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+      <formula>0.88</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q9 Q13">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+      <formula>0.22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
+      <formula>0.227</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S9 S13">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F6A92-67A6-487E-A3E1-13A77D2810CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB2AC-31EB-44BA-8136-0CF9A08933C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10455" yWindow="2235" windowWidth="14925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,757 +234,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="185">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="110">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2448,22 +1698,22 @@
         <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>0.89100000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="O6" s="1">
-        <v>0.69199999999999995</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="P6" s="1">
-        <v>0.81499999999999995</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.33500000000000002</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>0.72299999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="7" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,22 +1742,22 @@
         <v>6</v>
       </c>
       <c r="N7" s="1">
-        <v>7.8E-2</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="O7" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.876</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>0.127</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="8" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2536,22 +1786,22 @@
         <v>7</v>
       </c>
       <c r="N8" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="O8" s="1">
-        <v>0.65800000000000003</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="P8" s="1">
-        <v>0.85099999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.34399999999999997</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>0.71599999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>0.57299999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,22 +1830,22 @@
         <v>8</v>
       </c>
       <c r="N9" s="1">
-        <v>0.84899999999999998</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="O9" s="1">
-        <v>0.26900000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="P9" s="1">
-        <v>0.91</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.71099999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="R9" s="1">
-        <v>0.34300000000000003</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>0.23200000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="10" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2669,22 +1919,22 @@
         <v>11</v>
       </c>
       <c r="N13" s="1">
-        <v>0.86899999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="O13" s="1">
-        <v>0.64200000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="P13" s="1">
-        <v>0.88900000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.308</v>
+        <v>0.318</v>
       </c>
       <c r="R13" s="1">
-        <v>0.73899999999999999</v>
+        <v>0.747</v>
       </c>
       <c r="S13" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2751,7 +2001,7 @@
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O9 R6:R9 O13 R13">
+  <conditionalFormatting sqref="O6:O9 R6:R9 R13">
     <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
@@ -2763,7 +2013,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P9 P13">
     <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
-      <formula>0.88</formula>
+      <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9 Q13">

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB2AC-31EB-44BA-8136-0CF9A08933C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0D0A1F-2B3A-4E37-95E2-F319563A1B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="2235" windowWidth="14925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="4095" windowWidth="14925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,657 +234,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1614,7 +964,7 @@
   <dimension ref="D4:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,107 +1291,112 @@
     <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E6:E9 E13">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="greaterThan">
       <formula>0.891</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9 I6:I9 F13 I13">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9 G13">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="greaterThan">
       <formula>0.8115</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H13">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="greaterThan">
       <formula>0.22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="greaterThan">
       <formula>0.227</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J9 J13">
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N9 N13">
     <cfRule type="cellIs" dxfId="32" priority="13" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O9 R6:R9 R13">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P9 P13">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q9 Q13">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+      <formula>0.22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+      <formula>0.227</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S9 S13">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N9 N13">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O9 R6:R9 R13">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P9 P13">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q9 Q13">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThan">
-      <formula>0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
-      <formula>0.22</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
-      <formula>0.227</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S9 S13">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0.63</formula>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C07AA-65D1-4607-AAF4-6950D310D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9773A-2B20-4256-9C4C-8B1A2C4570FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,12 +259,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="394">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -537,21 +566,3151 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1323,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AT19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,9 +4502,7 @@
     <col min="41" max="46" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:46" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM4" s="8"/>
-    </row>
+    <row r="4" spans="4:46" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2251,369 +5408,379 @@
     <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E6:E9 E13:E15">
-    <cfRule type="cellIs" dxfId="77" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="105" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="cellIs" dxfId="76" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="63" operator="greaterThan">
+      <formula>0.884</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="64" operator="greaterThan">
       <formula>0.893</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="60" operator="greaterThan">
-      <formula>0.884</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="74" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="98" operator="greaterThan">
       <formula>0.898</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9 I6:I9 F13:F15 I13:I15">
-    <cfRule type="cellIs" dxfId="73" priority="101" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="104" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="cellIs" dxfId="72" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="62" operator="greaterThan">
       <formula>0.685</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="71" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="97" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9 G13:G15">
-    <cfRule type="cellIs" dxfId="70" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="103" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="99" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15 H6:H9">
-    <cfRule type="cellIs" dxfId="68" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="102" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="67" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="61" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="60" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="65" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="95" operator="greaterThan">
+      <formula>0.22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="96" operator="greaterThan">
       <formula>0.227</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="92" operator="greaterThan">
-      <formula>0.22</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="cellIs" dxfId="63" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="59" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="62" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="94" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J9 J13:J15">
-    <cfRule type="cellIs" dxfId="61" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="100" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" dxfId="60" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="58" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="59" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="93" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9 N13:N15">
-    <cfRule type="cellIs" dxfId="58" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="92" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N15">
-    <cfRule type="cellIs" dxfId="57" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="33" operator="greaterThan">
       <formula>0.8925</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="56" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="80" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="56" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="57" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P9 P13:P15">
-    <cfRule type="cellIs" dxfId="53" priority="84" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="55" operator="lessThan">
       <formula>0.485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="54" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="53" operator="greaterThan">
       <formula>0.589</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R15">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="52" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="48" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="82" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="51" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="50" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="45" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="81" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7 W13:W14">
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="79" operator="greaterThan">
       <formula>0.93</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W14">
-    <cfRule type="cellIs" dxfId="43" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="68" operator="greaterThan">
       <formula>0.8715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X14 AA13:AA14">
-    <cfRule type="cellIs" dxfId="42" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="78" operator="greaterThan">
       <formula>0.768</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X14">
-    <cfRule type="cellIs" dxfId="41" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="67" operator="greaterThan">
       <formula>0.667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Y7 Y13:Y14">
-    <cfRule type="cellIs" dxfId="40" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="75" operator="greaterThan">
       <formula>0.794</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z7 Z13:Z14">
-    <cfRule type="cellIs" dxfId="39" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="77" operator="lessThan">
       <formula>0.255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA14">
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="66" operator="greaterThan">
       <formula>0.7355</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AB7 AB13:AB14">
-    <cfRule type="cellIs" dxfId="37" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="76" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB14">
-    <cfRule type="cellIs" dxfId="36" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="65" operator="greaterThan">
       <formula>0.5845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF9 AF13:AF15">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="49" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AF15">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="31" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="31" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="43" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG15">
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="44" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH15">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="27" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI15">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="41" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="26" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AJ15">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="36" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="39" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK6:AK9">
+    <cfRule type="cellIs" dxfId="103" priority="38" operator="greaterThan">
+      <formula>0.447</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="25" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13:AK15">
+    <cfRule type="cellIs" dxfId="101" priority="37" operator="greaterThan">
+      <formula>0.5875</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="35" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO6:AO9 AO13:AO15">
+    <cfRule type="cellIs" dxfId="99" priority="21" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13:AO15">
+    <cfRule type="cellIs" dxfId="98" priority="12" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO6:AP9">
+    <cfRule type="cellIs" dxfId="97" priority="11" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13:AT15">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP6:AP9">
+    <cfRule type="cellIs" dxfId="95" priority="19" operator="greaterThan">
+      <formula>0.604</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP13:AP15">
+    <cfRule type="cellIs" dxfId="94" priority="20" operator="greaterThan">
+      <formula>0.7815</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ6:AQ9">
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ6:AQ15">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6:AR9">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="lessThan">
+      <formula>0.81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR13:AR15">
+    <cfRule type="cellIs" dxfId="89" priority="18" operator="lessThan">
+      <formula>0.32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS6:AS9">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
+      <formula>0.2205</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS13:AS15">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="17" operator="greaterThan">
+      <formula>0.7385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT6:AT9">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="16" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13:AK15">
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT13:AT15">
+    <cfRule type="cellIs" dxfId="83" priority="15" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO6:AO9 AO13:AO15">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
-      <formula>0.92</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13:AO15">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
-      <formula>0.604</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP13:AP15">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
-      <formula>0.7815</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6:AQ15">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
-      <formula>0.81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR13:AR15">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
-      <formula>0.32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
-      <formula>0.2205</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS13:AS15">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
-      <formula>0.7385</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">
-      <formula>0.447</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT13:AT15">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>0.5875</formula>
+  <conditionalFormatting sqref="G6:G9">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="greaterThan">
+      <formula>0.8135</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P9">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+      <formula>0.764</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.7095</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9773A-2B20-4256-9C4C-8B1A2C4570FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D4C8E-0B23-48C7-B849-EB84B241D6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="3300" windowWidth="16980" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="25">
   <si>
     <t>Accuracy</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>FedRGD (External Test Data)</t>
+  </si>
+  <si>
+    <t>FedAvg (3 Clients)</t>
+  </si>
+  <si>
+    <t>MoNu</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,17 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="394">
+  <dxfs count="737">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -566,6 +582,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -956,6 +982,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1186,6 +1222,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1356,6 +1412,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1746,6 +1812,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1966,6 +2042,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2136,6 +2232,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2526,6 +2632,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2746,6 +2862,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2916,6 +3052,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3526,6 +3672,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3696,6 +3872,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4101,6 +4287,3256 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4480,10 +7916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:AT19"/>
+  <dimension ref="D4:BC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:P15"/>
+    <sheetView tabSelected="1" topLeftCell="AS4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC6" sqref="BC6:BC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,10 +7936,12 @@
     <col min="32" max="37" width="13.7109375" customWidth="1"/>
     <col min="40" max="40" width="28.42578125" customWidth="1"/>
     <col min="41" max="46" width="13.85546875" customWidth="1"/>
+    <col min="49" max="49" width="28.140625" customWidth="1"/>
+    <col min="50" max="55" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:46" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:55" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4609,8 +8047,29 @@
       <c r="AT5" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AW5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4716,8 +8175,29 @@
       <c r="AT6" s="7">
         <v>0.191</v>
       </c>
+      <c r="AW6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="BB6" s="7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="BC6" s="7">
+        <v>0.64900000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4823,8 +8303,29 @@
       <c r="AT7" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
+      <c r="AW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="BB7" s="7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="BC7" s="7">
+        <v>0.40600000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4909,8 +8410,29 @@
       <c r="AT8" s="7">
         <v>0.191</v>
       </c>
+      <c r="AW8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="BB8" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="BC8" s="7">
+        <v>0.55600000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
@@ -4995,9 +8517,75 @@
       <c r="AT9" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
+      <c r="AW9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="BB9" s="7">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>0.69099999999999995</v>
+      </c>
     </row>
-    <row r="10" spans="4:46" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="BB10" s="7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5104,7 +8692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
@@ -5211,7 +8799,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="14" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
@@ -5318,7 +8906,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="15" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
@@ -5407,380 +8995,400 @@
     <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E6:E9 E13:E15">
-    <cfRule type="cellIs" dxfId="158" priority="105" operator="greaterThan">
+  <conditionalFormatting sqref="E6:E9 E13:E15 AX6:AX11">
+    <cfRule type="cellIs" dxfId="166" priority="118" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="cellIs" dxfId="157" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="76" operator="greaterThan">
       <formula>0.884</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="77" operator="greaterThan">
       <formula>0.893</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="155" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="111" operator="greaterThan">
       <formula>0.898</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9 I6:I9 F13:F15 I13:I15">
-    <cfRule type="cellIs" dxfId="154" priority="104" operator="greaterThan">
+  <conditionalFormatting sqref="F6:F9 I6:I9 F13:F15 I13:I15 AY6:AY11 BB6:BB11">
+    <cfRule type="cellIs" dxfId="162" priority="117" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="cellIs" dxfId="153" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="75" operator="greaterThan">
       <formula>0.685</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="152" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="110" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G9 G13:G15">
-    <cfRule type="cellIs" dxfId="151" priority="103" operator="greaterThan">
+  <conditionalFormatting sqref="G6:G9 G13:G15 AZ6:AZ11">
+    <cfRule type="cellIs" dxfId="159" priority="112" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="116" operator="greaterThan">
       <formula>0.85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="99" operator="greaterThan">
-      <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15 H6:H9">
-    <cfRule type="cellIs" dxfId="149" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="115" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="148" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="73" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="74" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="146" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="108" operator="greaterThan">
       <formula>0.22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="109" operator="greaterThan">
       <formula>0.227</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="cellIs" dxfId="144" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="72" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="143" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="107" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J9 J13:J15">
-    <cfRule type="cellIs" dxfId="142" priority="100" operator="greaterThan">
+  <conditionalFormatting sqref="J6:J9 J13:J15 BC6:BC11">
+    <cfRule type="cellIs" dxfId="150" priority="113" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" dxfId="141" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="71" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="140" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="106" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9 N13:N15">
-    <cfRule type="cellIs" dxfId="139" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="105" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N15">
-    <cfRule type="cellIs" dxfId="138" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="46" operator="greaterThan">
       <formula>0.8925</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="137" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="93" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="136" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="69" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="cellIs" dxfId="135" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="70" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P9">
+    <cfRule type="cellIs" dxfId="142" priority="15" operator="greaterThan">
+      <formula>0.764</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P15">
+    <cfRule type="cellIs" dxfId="141" priority="14" operator="greaterThan">
+      <formula>0.7095</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="134" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="68" operator="lessThan">
       <formula>0.485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="cellIs" dxfId="133" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="67" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="132" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="66" operator="greaterThan">
       <formula>0.589</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R15">
-    <cfRule type="cellIs" dxfId="131" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="65" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="130" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="95" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="129" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="64" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="cellIs" dxfId="128" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="63" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="127" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="94" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7 W13:W14">
-    <cfRule type="cellIs" dxfId="126" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="92" operator="greaterThan">
       <formula>0.93</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W14">
-    <cfRule type="cellIs" dxfId="125" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="81" operator="greaterThan">
       <formula>0.8715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X14 AA13:AA14">
-    <cfRule type="cellIs" dxfId="124" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="91" operator="greaterThan">
       <formula>0.768</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X14">
-    <cfRule type="cellIs" dxfId="123" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="80" operator="greaterThan">
       <formula>0.667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Y7 Y13:Y14">
-    <cfRule type="cellIs" dxfId="122" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="88" operator="greaterThan">
       <formula>0.794</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z7 Z13:Z14">
-    <cfRule type="cellIs" dxfId="121" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="90" operator="lessThan">
       <formula>0.255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA14">
-    <cfRule type="cellIs" dxfId="120" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="79" operator="greaterThan">
       <formula>0.7355</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AB7 AB13:AB14">
-    <cfRule type="cellIs" dxfId="119" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="89" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB14">
-    <cfRule type="cellIs" dxfId="118" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="78" operator="greaterThan">
       <formula>0.5845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF9 AF13:AF15">
-    <cfRule type="cellIs" dxfId="117" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="62" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AF15">
-    <cfRule type="cellIs" dxfId="116" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="47" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="115" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="44" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="114" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="113" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="56" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG15">
-    <cfRule type="cellIs" dxfId="112" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="57" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="111" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH15">
-    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="108" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="40" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI15">
-    <cfRule type="cellIs" dxfId="107" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="54" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="106" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="39" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AJ15">
-    <cfRule type="cellIs" dxfId="105" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="49" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="52" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="103" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="38" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="51" operator="greaterThan">
       <formula>0.447</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="25" operator="greaterThan">
-      <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AK15">
-    <cfRule type="cellIs" dxfId="101" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="48" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="50" operator="greaterThan">
       <formula>0.5875</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="35" operator="greaterThan">
-      <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AO9 AO13:AO15">
-    <cfRule type="cellIs" dxfId="99" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="34" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AO15">
-    <cfRule type="cellIs" dxfId="98" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="25" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="97" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="24" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="95" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="32" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13:AP15">
-    <cfRule type="cellIs" dxfId="94" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="33" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ15">
-    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="22" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR13:AR15">
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="31" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="21" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13:AS15">
-    <cfRule type="cellIs" dxfId="87" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="27" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="30" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="20" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="29" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AT15">
-    <cfRule type="cellIs" dxfId="83" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="26" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="28" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
-      <formula>0.63</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX6:AX11">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="greaterThan">
+      <formula>0.935</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G9">
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="greaterThan">
-      <formula>0.8135</formula>
+  <conditionalFormatting sqref="AZ6:AZ11">
+    <cfRule type="cellIs" dxfId="86" priority="5" operator="greaterThan">
+      <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P9">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
-      <formula>0.764</formula>
+  <conditionalFormatting sqref="BA6:BA11">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="lessThan">
+      <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P15">
+  <conditionalFormatting sqref="BB6:BB11">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC6:BC11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.7095</formula>
+      <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15338FC-C253-42FC-A21A-0D85F6057FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A35DD-D7AA-42EB-A874-B7E78BD8ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="2055" windowWidth="16980" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Clients" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="37">
   <si>
     <t>Accuracy</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Jaccard Index</t>
   </si>
   <si>
-    <t>Fed on MoNu</t>
-  </si>
-  <si>
     <t>FedAvg (External Test Data)</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
   </si>
   <si>
     <t>FedMix</t>
-  </si>
-  <si>
-    <t>BNS on MoNu</t>
-  </si>
-  <si>
-    <t>Miccai on MoNu</t>
   </si>
   <si>
     <t>LL</t>
@@ -95,9 +86,6 @@
   </si>
   <si>
     <t>FedRGD (External Test Data)</t>
-  </si>
-  <si>
-    <t>MoNu</t>
   </si>
   <si>
     <t>FedAvg (Cross-dataset)</t>
@@ -121,10 +109,34 @@
     <t>BNS on Miccai</t>
   </si>
   <si>
-    <t>MoNu on Miccai</t>
+    <t>Miccai on MoNuSeg</t>
   </si>
   <si>
-    <t>MoNu on BNS</t>
+    <t>BNS on MoNuSeg</t>
+  </si>
+  <si>
+    <t>Fed on MoNuSeg</t>
+  </si>
+  <si>
+    <t>Miccai on TNBC</t>
+  </si>
+  <si>
+    <t>BNS on TNBC</t>
+  </si>
+  <si>
+    <t>Fed on TNBC</t>
+  </si>
+  <si>
+    <t>MoNuSeg</t>
+  </si>
+  <si>
+    <t>MoNuSeg on TNBC</t>
+  </si>
+  <si>
+    <t>MoNuSeg on Miccai</t>
+  </si>
+  <si>
+    <t>MoNuSeg on BNS</t>
   </si>
 </sst>
 </file>
@@ -294,474 +306,424 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="215">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -967,6 +929,266 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2102,26 +2324,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2531,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:AT21"/>
+  <dimension ref="D4:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW5" sqref="AW5:BC18"/>
+    <sheetView topLeftCell="AK10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16:AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>0</v>
@@ -2600,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>0</v>
@@ -2621,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>0</v>
@@ -2642,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO5" s="4" t="s">
         <v>0</v>
@@ -3053,7 +3255,7 @@
     <row r="11" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>0</v>
@@ -3074,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>0</v>
@@ -3095,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>0</v>
@@ -3116,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>0</v>
@@ -3137,7 +3339,7 @@
         <v>10</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO12" s="4" t="s">
         <v>0</v>
@@ -3160,7 +3362,7 @@
     </row>
     <row r="13" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7">
         <v>0.89900000000000002</v>
@@ -3181,7 +3383,7 @@
         <v>0.64</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
         <v>0.88900000000000001</v>
@@ -3202,7 +3404,7 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="W13" s="7">
         <v>0.89100000000000001</v>
@@ -3223,7 +3425,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AF13" s="7">
         <v>0.216</v>
@@ -3244,7 +3446,7 @@
         <v>0.216</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AO13" s="7">
         <v>0.216</v>
@@ -3267,7 +3469,7 @@
     </row>
     <row r="14" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7">
         <v>0.86899999999999999</v>
@@ -3288,7 +3490,7 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N14" s="7">
         <v>0.89400000000000002</v>
@@ -3309,7 +3511,7 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="W14" s="7">
         <v>0.85199999999999998</v>
@@ -3330,7 +3532,7 @@
         <v>0.56100000000000005</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AF14" s="7">
         <v>0.216</v>
@@ -3351,7 +3553,7 @@
         <v>0.216</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AO14" s="7">
         <v>0.216</v>
@@ -3374,7 +3576,7 @@
     </row>
     <row r="15" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7">
         <v>0.89200000000000002</v>
@@ -3395,7 +3597,7 @@
         <v>0.63200000000000001</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
         <v>0.89600000000000002</v>
@@ -3415,8 +3617,29 @@
       <c r="S15" s="7">
         <v>0.59799999999999998</v>
       </c>
+      <c r="V15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0.40200000000000002</v>
+      </c>
       <c r="AE15" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AF15" s="7">
         <v>0.216</v>
@@ -3437,7 +3660,7 @@
         <v>0.216</v>
       </c>
       <c r="AN15" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AO15" s="7">
         <v>0.216</v>
@@ -3458,986 +3681,1391 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="16" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>0.125</v>
+      </c>
+    </row>
     <row r="18" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AH18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5" t="s">
+      <c r="AI18" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AQ18" s="7">
         <v>1</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="AJ19" s="7">
-        <v>0.127</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AQ19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="7">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="AS19" s="7">
-        <v>0.127</v>
-      </c>
-      <c r="AT19" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="P20" s="7">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="X20" s="7">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AH20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="7">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="AJ20" s="7">
-        <v>0.314</v>
-      </c>
-      <c r="AK20" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AN20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AP20" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="7">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="AS20" s="7">
-        <v>0.314</v>
-      </c>
-      <c r="AT20" s="7">
-        <v>0.191</v>
+      <c r="AR18" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>0.125</v>
       </c>
     </row>
     <row r="21" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AP24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="7">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AS24" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>0.314</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO25" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AQ25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="7">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>0.314</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>0.191</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E9 E13:E15">
-    <cfRule type="cellIs" dxfId="195" priority="215" operator="greaterThan">
+  <conditionalFormatting sqref="E6:E9 E13:E18">
+    <cfRule type="cellIs" dxfId="214" priority="249" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E15">
-    <cfRule type="cellIs" dxfId="194" priority="173" operator="greaterThan">
+  <conditionalFormatting sqref="E13:E18">
+    <cfRule type="cellIs" dxfId="213" priority="207" operator="greaterThan">
       <formula>0.884</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="208" operator="greaterThan">
       <formula>0.893</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="192" priority="208" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="242" operator="greaterThan">
       <formula>0.898</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="191" priority="97" operator="greaterThan">
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="cellIs" dxfId="210" priority="131" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9 I6:I9 F13:F15 I13:I15">
-    <cfRule type="cellIs" dxfId="190" priority="214" operator="greaterThan">
+  <conditionalFormatting sqref="F6:F9 I6:I9 F13:F18 I13:I18">
+    <cfRule type="cellIs" dxfId="209" priority="248" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
-    <cfRule type="cellIs" dxfId="189" priority="172" operator="greaterThan">
-      <formula>0.685</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="188" priority="207" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F20 I19:I20">
-    <cfRule type="cellIs" dxfId="187" priority="96" operator="greaterThan">
+  <conditionalFormatting sqref="F24:F25 I24:I25">
+    <cfRule type="cellIs" dxfId="208" priority="130" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G9 G13:G15">
-    <cfRule type="cellIs" dxfId="186" priority="209" operator="greaterThan">
+  <conditionalFormatting sqref="G6:G9 G13:G18">
+    <cfRule type="cellIs" dxfId="207" priority="243" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="213" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="247" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G20">
-    <cfRule type="cellIs" dxfId="184" priority="92" operator="greaterThan">
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="cellIs" dxfId="205" priority="126" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="129" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15 H6:H9">
-    <cfRule type="cellIs" dxfId="182" priority="212" operator="lessThan">
+  <conditionalFormatting sqref="H6:H9 H13:H18">
+    <cfRule type="cellIs" dxfId="203" priority="246" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="181" priority="170" operator="lessThan">
+  <conditionalFormatting sqref="H13:H18">
+    <cfRule type="cellIs" dxfId="202" priority="204" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="205" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="179" priority="205" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="239" operator="greaterThan">
       <formula>0.22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="206" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="240" operator="greaterThan">
       <formula>0.227</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="177" priority="81" operator="lessThan">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="cellIs" dxfId="198" priority="115" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="116" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="128" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="cellIs" dxfId="174" priority="169" operator="greaterThan">
+  <conditionalFormatting sqref="I13:I18">
+    <cfRule type="cellIs" dxfId="195" priority="203" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="173" priority="204" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="238" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I20">
-    <cfRule type="cellIs" dxfId="172" priority="80" operator="greaterThan">
+  <conditionalFormatting sqref="I24:I25">
+    <cfRule type="cellIs" dxfId="193" priority="114" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J9 J13:J15">
-    <cfRule type="cellIs" dxfId="171" priority="210" operator="greaterThan">
+  <conditionalFormatting sqref="J6:J9 J13:J18">
+    <cfRule type="cellIs" dxfId="192" priority="244" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" dxfId="170" priority="168" operator="greaterThan">
+  <conditionalFormatting sqref="J13:J18">
+    <cfRule type="cellIs" dxfId="191" priority="202" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="169" priority="203" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="237" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J20">
-    <cfRule type="cellIs" dxfId="168" priority="93" operator="greaterThan">
+  <conditionalFormatting sqref="J24:J25">
+    <cfRule type="cellIs" dxfId="189" priority="127" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9 N13:N15">
-    <cfRule type="cellIs" dxfId="167" priority="202" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="236" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N15">
-    <cfRule type="cellIs" dxfId="166" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="177" operator="greaterThan">
       <formula>0.8925</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="165" priority="190" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="224" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N20">
-    <cfRule type="cellIs" dxfId="164" priority="69" operator="greaterThan">
+  <conditionalFormatting sqref="N24:N25">
+    <cfRule type="cellIs" dxfId="185" priority="103" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="112" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="162" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="200" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="cellIs" dxfId="161" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="201" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:O20 R19:R20">
-    <cfRule type="cellIs" dxfId="160" priority="77" operator="greaterThan">
+  <conditionalFormatting sqref="O24:O25 R24:R25">
+    <cfRule type="cellIs" dxfId="181" priority="111" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P9">
-    <cfRule type="cellIs" dxfId="159" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="146" operator="greaterThan">
       <formula>0.764</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P15">
-    <cfRule type="cellIs" dxfId="158" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="145" operator="greaterThan">
       <formula>0.7095</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P20">
-    <cfRule type="cellIs" dxfId="157" priority="73" operator="greaterThan">
+  <conditionalFormatting sqref="P24:P25">
+    <cfRule type="cellIs" dxfId="178" priority="107" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="110" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="155" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="199" operator="lessThan">
       <formula>0.485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="cellIs" dxfId="154" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="198" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:Q20">
-    <cfRule type="cellIs" dxfId="153" priority="68" operator="lessThan">
+  <conditionalFormatting sqref="Q24:Q25">
+    <cfRule type="cellIs" dxfId="174" priority="102" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="105" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="106" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="109" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="149" priority="163" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="197" operator="greaterThan">
       <formula>0.589</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R15">
-    <cfRule type="cellIs" dxfId="148" priority="162" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="196" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="147" priority="192" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="226" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R20">
-    <cfRule type="cellIs" dxfId="146" priority="67" operator="greaterThan">
+  <conditionalFormatting sqref="R24:R25">
+    <cfRule type="cellIs" dxfId="167" priority="101" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="104" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="144" priority="161" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="195" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="cellIs" dxfId="143" priority="160" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="194" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="142" priority="191" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="225" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19:S20">
-    <cfRule type="cellIs" dxfId="141" priority="66" operator="greaterThan">
+  <conditionalFormatting sqref="S24:S25">
+    <cfRule type="cellIs" dxfId="162" priority="100" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="108" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6:W7 W13:W14">
-    <cfRule type="cellIs" dxfId="139" priority="189" operator="greaterThan">
+  <conditionalFormatting sqref="W6:W7 W13:W16">
+    <cfRule type="cellIs" dxfId="160" priority="223" operator="greaterThan">
       <formula>0.93</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W14">
-    <cfRule type="cellIs" dxfId="138" priority="178" operator="greaterThan">
+  <conditionalFormatting sqref="W13:W16">
+    <cfRule type="cellIs" dxfId="159" priority="212" operator="greaterThan">
       <formula>0.8715</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19:W20">
-    <cfRule type="cellIs" dxfId="137" priority="56" operator="greaterThan">
+  <conditionalFormatting sqref="W24:W25">
+    <cfRule type="cellIs" dxfId="158" priority="90" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="99" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X14 AA13:AA14">
-    <cfRule type="cellIs" dxfId="135" priority="188" operator="greaterThan">
+  <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X16 AA13:AA16">
+    <cfRule type="cellIs" dxfId="156" priority="222" operator="greaterThan">
       <formula>0.768</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X14">
-    <cfRule type="cellIs" dxfId="134" priority="177" operator="greaterThan">
+  <conditionalFormatting sqref="X13:X16">
+    <cfRule type="cellIs" dxfId="155" priority="211" operator="greaterThan">
       <formula>0.667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X20 AA19:AA20">
-    <cfRule type="cellIs" dxfId="133" priority="64" operator="greaterThan">
+  <conditionalFormatting sqref="X24:X25 AA24:AA25">
+    <cfRule type="cellIs" dxfId="154" priority="98" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X20">
-    <cfRule type="cellIs" dxfId="132" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="X24:X25">
+    <cfRule type="cellIs" dxfId="153" priority="86" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y7 Y13:Y14">
-    <cfRule type="cellIs" dxfId="131" priority="185" operator="greaterThan">
+  <conditionalFormatting sqref="Y6:Y7 Y13:Y16">
+    <cfRule type="cellIs" dxfId="152" priority="219" operator="greaterThan">
       <formula>0.794</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y19:Y20">
-    <cfRule type="cellIs" dxfId="130" priority="60" operator="greaterThan">
+  <conditionalFormatting sqref="Y24:Y25">
+    <cfRule type="cellIs" dxfId="151" priority="94" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="97" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:Z7 Z13:Z14">
-    <cfRule type="cellIs" dxfId="128" priority="187" operator="lessThan">
+  <conditionalFormatting sqref="Z6:Z7 Z13:Z16">
+    <cfRule type="cellIs" dxfId="149" priority="221" operator="lessThan">
       <formula>0.255</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z19:Z20">
-    <cfRule type="cellIs" dxfId="127" priority="55" operator="lessThan">
+  <conditionalFormatting sqref="Z24:Z25">
+    <cfRule type="cellIs" dxfId="148" priority="89" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="92" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="93" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="96" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA13:AA14">
-    <cfRule type="cellIs" dxfId="123" priority="176" operator="greaterThan">
+  <conditionalFormatting sqref="AA13:AA16">
+    <cfRule type="cellIs" dxfId="144" priority="210" operator="greaterThan">
       <formula>0.7355</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA19:AA20">
-    <cfRule type="cellIs" dxfId="122" priority="54" operator="greaterThan">
+  <conditionalFormatting sqref="AA24:AA25">
+    <cfRule type="cellIs" dxfId="143" priority="88" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="91" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AB7 AB13:AB14">
-    <cfRule type="cellIs" dxfId="120" priority="186" operator="greaterThan">
+  <conditionalFormatting sqref="AB6:AB7 AB13:AB16">
+    <cfRule type="cellIs" dxfId="141" priority="220" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AB14">
-    <cfRule type="cellIs" dxfId="119" priority="175" operator="greaterThan">
+  <conditionalFormatting sqref="AB13:AB16">
+    <cfRule type="cellIs" dxfId="140" priority="209" operator="greaterThan">
       <formula>0.5845</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB19:AB20">
-    <cfRule type="cellIs" dxfId="118" priority="53" operator="greaterThan">
+  <conditionalFormatting sqref="AB24:AB25">
+    <cfRule type="cellIs" dxfId="139" priority="87" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="95" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AF9 AF13:AF15">
-    <cfRule type="cellIs" dxfId="116" priority="159" operator="greaterThan">
+  <conditionalFormatting sqref="AF6:AF9 AF13:AF18">
+    <cfRule type="cellIs" dxfId="137" priority="193" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AF15">
-    <cfRule type="cellIs" dxfId="115" priority="144" operator="greaterThan">
+  <conditionalFormatting sqref="AF13:AF18">
+    <cfRule type="cellIs" dxfId="136" priority="178" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF19:AF20">
-    <cfRule type="cellIs" dxfId="114" priority="42" operator="greaterThan">
+  <conditionalFormatting sqref="AF24:AF25">
+    <cfRule type="cellIs" dxfId="135" priority="76" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="85" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="112" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="175" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF19:AG20">
-    <cfRule type="cellIs" dxfId="111" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="AF24:AG25">
+    <cfRule type="cellIs" dxfId="132" priority="71" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="110" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="168" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="109" priority="153" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="187" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG13:AG15">
-    <cfRule type="cellIs" dxfId="108" priority="154" operator="greaterThan">
+  <conditionalFormatting sqref="AG13:AG18">
+    <cfRule type="cellIs" dxfId="129" priority="188" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG19:AG20 AJ19:AJ20">
-    <cfRule type="cellIs" dxfId="107" priority="50" operator="greaterThan">
+  <conditionalFormatting sqref="AG24:AG25 AJ24:AJ25">
+    <cfRule type="cellIs" dxfId="128" priority="84" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG19:AG20">
-    <cfRule type="cellIs" dxfId="106" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="AG24:AG25">
+    <cfRule type="cellIs" dxfId="127" priority="72" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="105" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH6:AH15">
-    <cfRule type="cellIs" dxfId="104" priority="132" operator="equal">
+  <conditionalFormatting sqref="AH6:AH18">
+    <cfRule type="cellIs" dxfId="125" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="167" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH19:AH20">
-    <cfRule type="cellIs" dxfId="102" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="AH24:AH25">
+    <cfRule type="cellIs" dxfId="123" priority="80" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="83" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="100" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="171" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AI15">
-    <cfRule type="cellIs" dxfId="99" priority="151" operator="lessThan">
+  <conditionalFormatting sqref="AI13:AI18">
+    <cfRule type="cellIs" dxfId="120" priority="185" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI19:AI20">
-    <cfRule type="cellIs" dxfId="98" priority="36" operator="lessThan">
+  <conditionalFormatting sqref="AI24:AI25">
+    <cfRule type="cellIs" dxfId="119" priority="70" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="75" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="78" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="79" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="82" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="93" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="170" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13:AJ15">
-    <cfRule type="cellIs" dxfId="92" priority="146" operator="greaterThan">
+  <conditionalFormatting sqref="AJ13:AJ18">
+    <cfRule type="cellIs" dxfId="113" priority="180" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="183" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ19:AJ20">
-    <cfRule type="cellIs" dxfId="90" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="AJ24:AJ25">
+    <cfRule type="cellIs" dxfId="111" priority="69" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="74" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="77" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="87" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="169" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="182" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK13:AK15">
-    <cfRule type="cellIs" dxfId="85" priority="145" operator="greaterThan">
+  <conditionalFormatting sqref="AK13:AK18">
+    <cfRule type="cellIs" dxfId="106" priority="179" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="181" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK19:AK20">
-    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
+  <conditionalFormatting sqref="AK24:AK25">
+    <cfRule type="cellIs" dxfId="104" priority="68" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="73" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="81" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AO9 AO13:AO15">
-    <cfRule type="cellIs" dxfId="80" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="165" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AO15">
-    <cfRule type="cellIs" dxfId="79" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="156" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO19:AO20">
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="greaterThan">
+  <conditionalFormatting sqref="AO24:AO25">
+    <cfRule type="cellIs" dxfId="99" priority="58" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="67" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="76" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="155" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO19:AP20">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="AO24:AP25">
+    <cfRule type="cellIs" dxfId="96" priority="53" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="74" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="73" priority="129" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="163" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13:AP15">
-    <cfRule type="cellIs" dxfId="72" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="164" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AP20 AS19:AS20">
-    <cfRule type="cellIs" dxfId="71" priority="32" operator="greaterThan">
+  <conditionalFormatting sqref="AP24:AP25 AS24:AS25">
+    <cfRule type="cellIs" dxfId="92" priority="66" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AP20">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="AP24:AP25">
+    <cfRule type="cellIs" dxfId="91" priority="54" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="69" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ15">
-    <cfRule type="cellIs" dxfId="68" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="149" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ19:AQ20">
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="greaterThan">
+  <conditionalFormatting sqref="AQ24:AQ25">
+    <cfRule type="cellIs" dxfId="87" priority="62" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="65" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="64" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="153" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR13:AR15">
-    <cfRule type="cellIs" dxfId="63" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="162" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR19:AR20">
-    <cfRule type="cellIs" dxfId="62" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="AR24:AR25">
+    <cfRule type="cellIs" dxfId="83" priority="52" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="57" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="60" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="61" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="64" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="57" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="152" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13:AS15">
-    <cfRule type="cellIs" dxfId="56" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="158" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="161" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS19:AS20">
-    <cfRule type="cellIs" dxfId="54" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="AS24:AS25">
+    <cfRule type="cellIs" dxfId="75" priority="51" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="56" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="51" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="151" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="160" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AT15">
-    <cfRule type="cellIs" dxfId="49" priority="123" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="157" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="159" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT19:AT20">
-    <cfRule type="cellIs" dxfId="47" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="AT24:AT25">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="55" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="greaterThan">
       <formula>0.62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="65" priority="34" operator="greaterThan">
+      <formula>0.898</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="63" priority="29" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N18">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N18">
+    <cfRule type="cellIs" dxfId="61" priority="21" operator="greaterThan">
+      <formula>0.884</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="22" operator="greaterThan">
+      <formula>0.893</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O18 R16:R18">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P18">
+    <cfRule type="cellIs" dxfId="58" priority="23" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="26" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q18">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="lessThan">
+      <formula>0.195</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q18">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R18">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="greaterThan">
+      <formula>0.7605</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S18">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S18">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="greaterThan">
+      <formula>0.616</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
+      <formula>0.898</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="48" priority="14" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16:AK18">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AO18">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AO18">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP16:AP18">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="greaterThan">
+      <formula>0.7815</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ16:AQ18">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR16:AR18">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="lessThan">
+      <formula>0.32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS16:AS18">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+      <formula>0.7385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT16:AT18">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
+      <formula>0.5875</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AT18">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4446,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EB822-0A82-415C-A215-29BF00E2AD44}">
-  <dimension ref="D5:J18"/>
+  <dimension ref="D4:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +5086,8 @@
     <col min="5" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4481,7 +5110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4504,7 +5133,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4527,9 +5156,9 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7">
         <v>0.84599999999999997</v>
@@ -4550,7 +5179,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="9" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +5202,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="10" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4596,9 +5225,9 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7">
         <v>0.82699999999999996</v>
@@ -4621,9 +5250,9 @@
     </row>
     <row r="12" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>0</v>
@@ -4644,110 +5273,311 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7">
-        <v>0.96399999999999997</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F15" s="7">
-        <v>0.77600000000000002</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="G15" s="7">
-        <v>0.79800000000000004</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="H15" s="7">
-        <v>0.22900000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="I15" s="7">
-        <v>0.77400000000000002</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="J15" s="7">
-        <v>0.63800000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="16" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7">
-        <v>0.91500000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F16" s="7">
-        <v>0.71299999999999997</v>
+        <v>0.53</v>
       </c>
       <c r="G16" s="7">
-        <v>0.89100000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="H16" s="7">
-        <v>0.219</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="I16" s="7">
-        <v>0.78200000000000003</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="J16" s="7">
-        <v>0.65</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7">
-        <v>0.91700000000000004</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F17" s="7">
-        <v>0.83399999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="G17" s="7">
-        <v>0.68300000000000005</v>
+        <v>0.505</v>
       </c>
       <c r="H17" s="7">
-        <v>0.25600000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="I17" s="7">
-        <v>0.746</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="J17" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="4:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.746</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="7">
         <v>0.95599999999999996</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F29" s="7">
         <v>0.77500000000000002</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G29" s="7">
         <v>0.68700000000000006</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H29" s="7">
         <v>0.31</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I29" s="7">
         <v>0.69399999999999995</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J29" s="7">
         <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.872</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.254</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.747</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.58699999999999997</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E11">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 I6:I11">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F31 I26:I31">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F31">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="greaterThan">
+      <formula>0.775</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G6:G11">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G31">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="greaterThan">
+      <formula>0.787</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
@@ -4755,92 +5585,90 @@
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H11">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="lessThan">
+      <formula>0.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H31">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+      <formula>0.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I11">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I31">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E11">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="J26:J31">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+      <formula>0.61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E18">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E18">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
-      <formula>0.935</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F18 I15:I18">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F18">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
-      <formula>0.775</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="G15:G18">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
-      <formula>0.787</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H11">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="H15:H18">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
-      <formula>0.22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I11">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="I15:I18">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I18">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
-      <formula>0.75</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
-      <formula>0.78</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="J15:J18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0.61</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A35DD-D7AA-42EB-A874-B7E78BD8ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F5132-79E6-449C-9A32-C6EAAEE29265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="2055" windowWidth="16980" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10665" yWindow="1395" windowWidth="16980" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Clients" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
   <si>
     <t>Accuracy</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>MoNuSeg on BNS</t>
+  </si>
+  <si>
+    <t>Miccai on MoNuSAC</t>
+  </si>
+  <si>
+    <t>BNS on MoNuSAC</t>
+  </si>
+  <si>
+    <t>Fed on MoNuSAC</t>
+  </si>
+  <si>
+    <t>MoNuSeg on MoNuSAC</t>
   </si>
 </sst>
 </file>
@@ -279,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,348 +314,2581 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="438">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -849,6 +3094,226 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -929,6 +3394,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1189,11 +3774,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1509,266 +4114,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2029,6 +4374,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2144,186 +4569,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2733,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:AT25"/>
+  <dimension ref="D4:AT26"/>
   <sheetViews>
-    <sheetView topLeftCell="AK10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16:AT18"/>
+    <sheetView topLeftCell="AK17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN19" sqref="AN19:AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3831,6 +6076,27 @@
       <c r="S17" s="7">
         <v>0.4</v>
       </c>
+      <c r="V17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0.40300000000000002</v>
+      </c>
       <c r="AE17" s="3" t="s">
         <v>31</v>
       </c>
@@ -3917,6 +6183,27 @@
       <c r="S18" s="7">
         <v>0.40400000000000003</v>
       </c>
+      <c r="V18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.627</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="AE18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3960,1112 +6247,1364 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+    <row r="19" spans="4:46" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:46" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.318</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:46" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.497</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.434</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:46" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y23" s="5" t="s">
+      <c r="Y24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Z24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AA24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB23" s="5" t="s">
+      <c r="AB24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF23" s="4" t="s">
+      <c r="AF24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG23" s="5" t="s">
+      <c r="AG24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AH23" s="5" t="s">
+      <c r="AH24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AI23" s="5" t="s">
+      <c r="AI24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AJ23" s="6" t="s">
+      <c r="AJ24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK23" s="5" t="s">
+      <c r="AK24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AN24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO23" s="4" t="s">
+      <c r="AO24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AP23" s="5" t="s">
+      <c r="AP24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AQ23" s="5" t="s">
+      <c r="AQ24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AR23" s="5" t="s">
+      <c r="AR24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AS23" s="6" t="s">
+      <c r="AS24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AT23" s="5" t="s">
+      <c r="AT24" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="X24" s="7">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF24" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AG24" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AH24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="7">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="AJ24" s="7">
-        <v>0.127</v>
-      </c>
-      <c r="AK24" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AN24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO24" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AP24" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AQ24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR24" s="7">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="AS24" s="7">
-        <v>0.127</v>
-      </c>
-      <c r="AT24" s="7">
-        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="25" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
-        <v>26</v>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="7">
-        <v>0.91100000000000003</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F25" s="7">
-        <v>0.69499999999999995</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="G25" s="7">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="H25" s="7">
-        <v>0.22800000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="I25" s="7">
-        <v>0.77300000000000002</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="J25" s="7">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N25" s="7">
-        <v>0.9</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="O25" s="7">
-        <v>0.81899999999999995</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="P25" s="7">
-        <v>0.64200000000000002</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="Q25" s="7">
-        <v>0.37</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="R25" s="7">
-        <v>0.7</v>
+        <v>0.435</v>
       </c>
       <c r="S25" s="7">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>26</v>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W25" s="7">
-        <v>0.89600000000000002</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="X25" s="7">
-        <v>0.67900000000000005</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="Y25" s="7">
-        <v>0.86699999999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="Z25" s="7">
-        <v>0.25800000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AA25" s="7">
-        <v>0.74299999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="AB25" s="7">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>26</v>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AF25" s="7">
-        <v>0.191</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AG25" s="7">
-        <v>0.191</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AH25" s="7">
         <v>1</v>
       </c>
       <c r="AI25" s="7">
-        <v>0.73199999999999998</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="AJ25" s="7">
-        <v>0.314</v>
+        <v>0.127</v>
       </c>
       <c r="AK25" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AN25" s="3" t="s">
-        <v>26</v>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AO25" s="7">
-        <v>0.191</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AP25" s="7">
-        <v>0.191</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AQ25" s="7">
         <v>1</v>
       </c>
       <c r="AR25" s="7">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="7">
         <v>0.73199999999999998</v>
       </c>
-      <c r="AS25" s="7">
+      <c r="AJ26" s="7">
         <v>0.314</v>
       </c>
-      <c r="AT25" s="7">
+      <c r="AK26" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO26" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AP26" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="AQ26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="7">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AS26" s="7">
+        <v>0.314</v>
+      </c>
+      <c r="AT26" s="7">
         <v>0.191</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E9 E13:E18">
-    <cfRule type="cellIs" dxfId="214" priority="249" operator="greaterThan">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="437" priority="319" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="284" operator="greaterThan">
+      <formula>0.7605</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="top10" dxfId="435" priority="77" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="top10" dxfId="434" priority="76" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E21">
+    <cfRule type="top10" dxfId="433" priority="73" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="432" priority="318" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="283" operator="greaterThan">
+      <formula>0.616</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="cellIs" dxfId="430" priority="212" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E18">
-    <cfRule type="cellIs" dxfId="213" priority="207" operator="greaterThan">
-      <formula>0.884</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="208" operator="greaterThan">
-      <formula>0.893</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="211" priority="242" operator="greaterThan">
-      <formula>0.898</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="210" priority="131" operator="greaterThan">
+  <conditionalFormatting sqref="F13:F15">
+    <cfRule type="top10" dxfId="429" priority="72" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F18">
+    <cfRule type="top10" dxfId="428" priority="71" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F21">
+    <cfRule type="top10" dxfId="427" priority="70" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F26 I25:I26">
+    <cfRule type="cellIs" dxfId="426" priority="211" operator="greaterThan">
+      <formula>0.76</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G9">
+    <cfRule type="cellIs" dxfId="425" priority="324" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="328" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G15">
+    <cfRule type="top10" dxfId="423" priority="60" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G18">
+    <cfRule type="top10" dxfId="422" priority="59" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G21">
+    <cfRule type="top10" dxfId="421" priority="58" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="cellIs" dxfId="420" priority="210" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="207" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H9">
+    <cfRule type="cellIs" dxfId="418" priority="327" operator="lessThan">
+      <formula>0.195</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="top10" dxfId="417" priority="57" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H18">
+    <cfRule type="top10" dxfId="416" priority="56" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H21">
+    <cfRule type="top10" dxfId="415" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H26">
+    <cfRule type="cellIs" dxfId="414" priority="209" operator="lessThan">
+      <formula>0.195</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="197" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="196" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="top10" dxfId="411" priority="54" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I18">
+    <cfRule type="top10" dxfId="410" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I21">
+    <cfRule type="top10" dxfId="409" priority="52" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I26">
+    <cfRule type="cellIs" dxfId="408" priority="195" operator="greaterThan">
+      <formula>0.7605</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J9 E22">
+    <cfRule type="cellIs" dxfId="407" priority="325" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J15">
+    <cfRule type="top10" dxfId="406" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J18">
+    <cfRule type="top10" dxfId="405" priority="50" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="top10" dxfId="404" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J26">
+    <cfRule type="cellIs" dxfId="403" priority="208" operator="greaterThan">
+      <formula>0.62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N9">
+    <cfRule type="cellIs" dxfId="402" priority="317" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N15">
+    <cfRule type="top10" dxfId="401" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N18">
+    <cfRule type="top10" dxfId="400" priority="42" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N21">
+    <cfRule type="top10" dxfId="399" priority="48" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N26">
+    <cfRule type="cellIs" dxfId="398" priority="193" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9 I6:I9 F13:F18 I13:I18">
-    <cfRule type="cellIs" dxfId="209" priority="248" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25 I24:I25">
-    <cfRule type="cellIs" dxfId="208" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="397" priority="184" operator="greaterThan">
+      <formula>0.906</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O9">
+    <cfRule type="cellIs" dxfId="396" priority="281" operator="greaterThan">
+      <formula>0.604</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O15">
+    <cfRule type="top10" dxfId="395" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O18">
+    <cfRule type="top10" dxfId="394" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:O21">
+    <cfRule type="top10" dxfId="393" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O26 R25:R26">
+    <cfRule type="cellIs" dxfId="392" priority="192" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G9 G13:G18">
-    <cfRule type="cellIs" dxfId="207" priority="243" operator="greaterThan">
+  <conditionalFormatting sqref="P6:P9">
+    <cfRule type="cellIs" dxfId="391" priority="227" operator="greaterThan">
+      <formula>0.764</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P15">
+    <cfRule type="top10" dxfId="390" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P18">
+    <cfRule type="cellIs" dxfId="389" priority="107" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="104" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="247" operator="greaterThan">
+    <cfRule type="top10" dxfId="387" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P21">
+    <cfRule type="top10" dxfId="386" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P26">
+    <cfRule type="cellIs" dxfId="385" priority="191" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="205" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="188" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="129" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q9">
+    <cfRule type="cellIs" dxfId="383" priority="280" operator="lessThan">
+      <formula>0.485</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:Q15">
+    <cfRule type="top10" dxfId="382" priority="36" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q18">
+    <cfRule type="cellIs" dxfId="381" priority="100" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="106" operator="lessThan">
+      <formula>0.195</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="101" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="378" priority="35" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:Q21">
+    <cfRule type="top10" dxfId="377" priority="45" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:Q26">
+    <cfRule type="cellIs" dxfId="376" priority="190" operator="lessThan">
+      <formula>0.195</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="187" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="186" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="183" operator="lessThan">
+      <formula>0.479</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R9">
+    <cfRule type="cellIs" dxfId="372" priority="278" operator="greaterThan">
+      <formula>0.589</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13:R15">
+    <cfRule type="top10" dxfId="371" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R18">
+    <cfRule type="top10" dxfId="370" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R21">
+    <cfRule type="top10" dxfId="369" priority="44" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R26">
+    <cfRule type="cellIs" dxfId="368" priority="182" operator="greaterThan">
+      <formula>0.5675</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="185" operator="greaterThan">
+      <formula>0.7605</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S9">
+    <cfRule type="cellIs" dxfId="366" priority="276" operator="greaterThan">
+      <formula>0.447</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13:S15">
+    <cfRule type="top10" dxfId="365" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S18">
+    <cfRule type="cellIs" dxfId="364" priority="98" operator="greaterThan">
+      <formula>0.616</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="105" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="362" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="361" priority="95" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:S21">
+    <cfRule type="top10" dxfId="360" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:S26">
+    <cfRule type="cellIs" dxfId="359" priority="181" operator="greaterThan">
+      <formula>0.427</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="189" operator="greaterThan">
+      <formula>0.62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:W7 W13:W14">
+    <cfRule type="cellIs" dxfId="357" priority="304" operator="greaterThan">
+      <formula>0.93</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13:W14">
+    <cfRule type="cellIs" dxfId="356" priority="293" operator="greaterThan">
+      <formula>0.8715</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:W16">
+    <cfRule type="top10" dxfId="355" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17:W18">
+    <cfRule type="top10" dxfId="354" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25:W26">
+    <cfRule type="cellIs" dxfId="353" priority="180" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="171" operator="greaterThan">
+      <formula>0.906</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X16 AA13:AA16">
+    <cfRule type="cellIs" dxfId="351" priority="303" operator="greaterThan">
+      <formula>0.768</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13:X16">
+    <cfRule type="cellIs" dxfId="350" priority="292" operator="greaterThan">
+      <formula>0.667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X18">
+    <cfRule type="top10" dxfId="349" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25:X26 AA25:AA26">
+    <cfRule type="cellIs" dxfId="348" priority="179" operator="greaterThan">
+      <formula>0.76</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25:X26">
+    <cfRule type="cellIs" dxfId="347" priority="167" operator="greaterThan">
+      <formula>0.563</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Y7 Y13:Y16">
+    <cfRule type="cellIs" dxfId="346" priority="300" operator="greaterThan">
+      <formula>0.794</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15:Y16">
+    <cfRule type="top10" dxfId="345" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17:Y18">
+    <cfRule type="top10" dxfId="344" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25:Y26">
+    <cfRule type="cellIs" dxfId="343" priority="175" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="178" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H9 H13:H18">
-    <cfRule type="cellIs" dxfId="203" priority="246" operator="lessThan">
+  <conditionalFormatting sqref="Z6:Z7 Z13:Z16">
+    <cfRule type="cellIs" dxfId="341" priority="302" operator="lessThan">
+      <formula>0.255</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:Z16">
+    <cfRule type="top10" dxfId="340" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:Z18">
+    <cfRule type="top10" dxfId="339" priority="26" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:Z26">
+    <cfRule type="cellIs" dxfId="338" priority="170" operator="lessThan">
+      <formula>0.479</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="174" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="177" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H18">
-    <cfRule type="cellIs" dxfId="202" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="173" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="205" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13:AA16">
+    <cfRule type="cellIs" dxfId="334" priority="291" operator="greaterThan">
+      <formula>0.7355</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15:AA16">
+    <cfRule type="top10" dxfId="333" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA17:AA18">
+    <cfRule type="top10" dxfId="332" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25:AA26">
+    <cfRule type="cellIs" dxfId="331" priority="172" operator="greaterThan">
+      <formula>0.7605</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="169" operator="greaterThan">
+      <formula>0.5675</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6:AB7 AB13:AB16">
+    <cfRule type="cellIs" dxfId="329" priority="301" operator="greaterThan">
+      <formula>0.61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AB16">
+    <cfRule type="cellIs" dxfId="328" priority="290" operator="greaterThan">
+      <formula>0.5845</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB15:AB16">
+    <cfRule type="top10" dxfId="327" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17:AB18">
+    <cfRule type="top10" dxfId="326" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB25:AB26">
+    <cfRule type="cellIs" dxfId="325" priority="176" operator="greaterThan">
+      <formula>0.62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="168" operator="greaterThan">
+      <formula>0.427</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF6:AF9 AF13:AF18">
+    <cfRule type="cellIs" dxfId="323" priority="274" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13:AF18">
+    <cfRule type="cellIs" dxfId="322" priority="259" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF19:AF21">
+    <cfRule type="top10" dxfId="321" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25:AF26">
+    <cfRule type="cellIs" dxfId="320" priority="166" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="157" operator="greaterThan">
+      <formula>0.906</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF6:AG9">
+    <cfRule type="cellIs" dxfId="318" priority="256" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25:AG26">
+    <cfRule type="cellIs" dxfId="317" priority="152" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13:AK15">
+    <cfRule type="cellIs" dxfId="316" priority="249" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16:AK18">
+    <cfRule type="cellIs" dxfId="315" priority="94" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG6:AG9">
+    <cfRule type="cellIs" dxfId="314" priority="268" operator="greaterThan">
+      <formula>0.604</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13:AG18">
+    <cfRule type="cellIs" dxfId="313" priority="269" operator="greaterThan">
+      <formula>0.7815</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19:AG21">
+    <cfRule type="top10" dxfId="312" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25:AG26 AJ25:AJ26">
+    <cfRule type="cellIs" dxfId="311" priority="165" operator="greaterThan">
+      <formula>0.76</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25:AG26">
+    <cfRule type="cellIs" dxfId="310" priority="153" operator="greaterThan">
+      <formula>0.563</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH6:AH9">
+    <cfRule type="cellIs" dxfId="309" priority="255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH6:AH18">
+    <cfRule type="cellIs" dxfId="308" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="248" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19:AH21">
+    <cfRule type="top10" dxfId="306" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25:AH26">
+    <cfRule type="cellIs" dxfId="305" priority="164" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="161" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI6:AI9">
+    <cfRule type="cellIs" dxfId="303" priority="252" operator="lessThan">
+      <formula>0.81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AI18">
+    <cfRule type="cellIs" dxfId="302" priority="266" operator="lessThan">
+      <formula>0.32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19:AI21">
+    <cfRule type="top10" dxfId="301" priority="15" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25:AI26">
+    <cfRule type="cellIs" dxfId="300" priority="151" operator="lessThan">
+      <formula>0.81</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="160" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="200" priority="239" operator="greaterThan">
-      <formula>0.22</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="240" operator="greaterThan">
-      <formula>0.227</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="cellIs" dxfId="198" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="159" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="156" operator="lessThan">
+      <formula>0.479</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="163" operator="lessThan">
+      <formula>0.195</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ6:AJ9">
+    <cfRule type="cellIs" dxfId="295" priority="251" operator="greaterThan">
+      <formula>0.2205</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AJ18">
+    <cfRule type="cellIs" dxfId="294" priority="261" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="264" operator="greaterThan">
+      <formula>0.7385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ19:AJ21">
+    <cfRule type="top10" dxfId="292" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25:AJ26">
+    <cfRule type="cellIs" dxfId="291" priority="158" operator="greaterThan">
+      <formula>0.7605</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="155" operator="greaterThan">
+      <formula>0.5675</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="150" operator="greaterThan">
+      <formula>0.2205</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK6:AK9">
+    <cfRule type="cellIs" dxfId="288" priority="263" operator="greaterThan">
+      <formula>0.447</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="250" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13:AK18">
+    <cfRule type="cellIs" dxfId="286" priority="260" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="262" operator="greaterThan">
+      <formula>0.5875</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19:AK21">
+    <cfRule type="top10" dxfId="284" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25:AK26">
+    <cfRule type="cellIs" dxfId="283" priority="162" operator="greaterThan">
+      <formula>0.62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="149" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="154" operator="greaterThan">
+      <formula>0.427</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO6:AO9">
+    <cfRule type="cellIs" dxfId="280" priority="246" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13:AO18">
+    <cfRule type="cellIs" dxfId="279" priority="85" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="92" operator="greaterThan">
+      <formula>0.92</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO19:AO21">
+    <cfRule type="top10" dxfId="277" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25:AO26">
+    <cfRule type="cellIs" dxfId="276" priority="139" operator="greaterThan">
+      <formula>0.906</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="148" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO6:AP9">
+    <cfRule type="cellIs" dxfId="274" priority="236" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25:AP26">
+    <cfRule type="cellIs" dxfId="273" priority="134" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13:AT15">
+    <cfRule type="cellIs" dxfId="272" priority="231" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AT18">
+    <cfRule type="cellIs" dxfId="271" priority="82" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP6:AP9">
+    <cfRule type="cellIs" dxfId="270" priority="244" operator="greaterThan">
+      <formula>0.604</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP13:AP18">
+    <cfRule type="cellIs" dxfId="269" priority="91" operator="greaterThan">
+      <formula>0.7815</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP19:AP21">
+    <cfRule type="top10" dxfId="268" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AP26 AS25:AS26">
+    <cfRule type="cellIs" dxfId="267" priority="147" operator="greaterThan">
+      <formula>0.76</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AP26">
+    <cfRule type="cellIs" dxfId="266" priority="135" operator="greaterThan">
+      <formula>0.563</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ6:AQ9">
+    <cfRule type="cellIs" dxfId="265" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ6:AQ18">
+    <cfRule type="cellIs" dxfId="264" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ19:AQ21">
+    <cfRule type="top10" dxfId="262" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25:AQ26">
+    <cfRule type="cellIs" dxfId="261" priority="143" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="146" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6:AR9">
+    <cfRule type="cellIs" dxfId="259" priority="234" operator="lessThan">
+      <formula>0.81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR13:AR18">
+    <cfRule type="cellIs" dxfId="258" priority="90" operator="lessThan">
+      <formula>0.32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR19:AR21">
+    <cfRule type="top10" dxfId="257" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25:AR26">
+    <cfRule type="cellIs" dxfId="256" priority="142" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="138" operator="lessThan">
+      <formula>0.479</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="145" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I18">
-    <cfRule type="cellIs" dxfId="195" priority="203" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="141" operator="lessThan">
+      <formula>0.24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="133" operator="lessThan">
+      <formula>0.81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS6:AS9">
+    <cfRule type="cellIs" dxfId="251" priority="233" operator="greaterThan">
+      <formula>0.2205</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS13:AS18">
+    <cfRule type="cellIs" dxfId="250" priority="87" operator="greaterThan">
+      <formula>0.77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="89" operator="greaterThan">
+      <formula>0.7385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS19:AS21">
+    <cfRule type="top10" dxfId="248" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS25:AS26">
+    <cfRule type="cellIs" dxfId="247" priority="132" operator="greaterThan">
+      <formula>0.2205</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="140" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="194" priority="238" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I25">
-    <cfRule type="cellIs" dxfId="193" priority="114" operator="greaterThan">
-      <formula>0.7605</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J9 J13:J18">
-    <cfRule type="cellIs" dxfId="192" priority="244" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J18">
-    <cfRule type="cellIs" dxfId="191" priority="202" operator="greaterThan">
-      <formula>0.616</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="190" priority="237" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="137" operator="greaterThan">
+      <formula>0.5675</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT6:AT9">
+    <cfRule type="cellIs" dxfId="244" priority="241" operator="greaterThan">
+      <formula>0.447</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="232" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT13:AT18">
+    <cfRule type="cellIs" dxfId="242" priority="86" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J25">
-    <cfRule type="cellIs" dxfId="189" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="88" operator="greaterThan">
+      <formula>0.5875</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19:AT21">
+    <cfRule type="top10" dxfId="240" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT25:AT26">
+    <cfRule type="cellIs" dxfId="239" priority="131" operator="greaterThan">
+      <formula>0.1325</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="136" operator="greaterThan">
+      <formula>0.427</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="144" operator="greaterThan">
       <formula>0.62</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N9 N13:N15">
-    <cfRule type="cellIs" dxfId="188" priority="236" operator="greaterThan">
-      <formula>0.92</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N15">
-    <cfRule type="cellIs" dxfId="187" priority="177" operator="greaterThan">
-      <formula>0.8925</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="186" priority="224" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N25">
-    <cfRule type="cellIs" dxfId="185" priority="103" operator="greaterThan">
-      <formula>0.906</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="112" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="183" priority="200" operator="greaterThan">
-      <formula>0.604</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O15">
-    <cfRule type="cellIs" dxfId="182" priority="201" operator="greaterThan">
-      <formula>0.7815</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24:O25 R24:R25">
-    <cfRule type="cellIs" dxfId="181" priority="111" operator="greaterThan">
-      <formula>0.76</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P9">
-    <cfRule type="cellIs" dxfId="180" priority="146" operator="greaterThan">
-      <formula>0.764</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P15">
-    <cfRule type="cellIs" dxfId="179" priority="145" operator="greaterThan">
-      <formula>0.7095</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:P25">
-    <cfRule type="cellIs" dxfId="178" priority="107" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="110" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="176" priority="199" operator="lessThan">
-      <formula>0.485</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="cellIs" dxfId="175" priority="198" operator="lessThan">
-      <formula>0.32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:Q25">
-    <cfRule type="cellIs" dxfId="174" priority="102" operator="lessThan">
-      <formula>0.479</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="105" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="106" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="109" operator="lessThan">
-      <formula>0.195</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="170" priority="197" operator="greaterThan">
-      <formula>0.589</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R15">
-    <cfRule type="cellIs" dxfId="169" priority="196" operator="greaterThan">
-      <formula>0.7385</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="168" priority="226" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24:R25">
-    <cfRule type="cellIs" dxfId="167" priority="101" operator="greaterThan">
-      <formula>0.5675</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="104" operator="greaterThan">
-      <formula>0.7605</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="165" priority="195" operator="greaterThan">
-      <formula>0.447</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13:S15">
-    <cfRule type="cellIs" dxfId="164" priority="194" operator="greaterThan">
-      <formula>0.5875</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="163" priority="225" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:S25">
-    <cfRule type="cellIs" dxfId="162" priority="100" operator="greaterThan">
-      <formula>0.427</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="108" operator="greaterThan">
-      <formula>0.62</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W6:W7 W13:W16">
-    <cfRule type="cellIs" dxfId="160" priority="223" operator="greaterThan">
-      <formula>0.93</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W16">
-    <cfRule type="cellIs" dxfId="159" priority="212" operator="greaterThan">
-      <formula>0.8715</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24:W25">
-    <cfRule type="cellIs" dxfId="158" priority="90" operator="greaterThan">
-      <formula>0.906</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="99" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X16 AA13:AA16">
-    <cfRule type="cellIs" dxfId="156" priority="222" operator="greaterThan">
-      <formula>0.768</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X16">
-    <cfRule type="cellIs" dxfId="155" priority="211" operator="greaterThan">
-      <formula>0.667</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24:X25 AA24:AA25">
-    <cfRule type="cellIs" dxfId="154" priority="98" operator="greaterThan">
-      <formula>0.76</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24:X25">
-    <cfRule type="cellIs" dxfId="153" priority="86" operator="greaterThan">
-      <formula>0.563</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y7 Y13:Y16">
-    <cfRule type="cellIs" dxfId="152" priority="219" operator="greaterThan">
-      <formula>0.794</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24:Y25">
-    <cfRule type="cellIs" dxfId="151" priority="94" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="97" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:Z7 Z13:Z16">
-    <cfRule type="cellIs" dxfId="149" priority="221" operator="lessThan">
-      <formula>0.255</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24:Z25">
-    <cfRule type="cellIs" dxfId="148" priority="89" operator="lessThan">
-      <formula>0.479</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="92" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="93" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="96" operator="lessThan">
-      <formula>0.195</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13:AA16">
-    <cfRule type="cellIs" dxfId="144" priority="210" operator="greaterThan">
-      <formula>0.7355</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA24:AA25">
-    <cfRule type="cellIs" dxfId="143" priority="88" operator="greaterThan">
-      <formula>0.5675</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="91" operator="greaterThan">
-      <formula>0.7605</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AB7 AB13:AB16">
-    <cfRule type="cellIs" dxfId="141" priority="220" operator="greaterThan">
-      <formula>0.61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AB16">
-    <cfRule type="cellIs" dxfId="140" priority="209" operator="greaterThan">
-      <formula>0.5845</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB24:AB25">
-    <cfRule type="cellIs" dxfId="139" priority="87" operator="greaterThan">
-      <formula>0.427</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="95" operator="greaterThan">
-      <formula>0.62</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AF9 AF13:AF18">
-    <cfRule type="cellIs" dxfId="137" priority="193" operator="greaterThan">
-      <formula>0.92</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AF18">
-    <cfRule type="cellIs" dxfId="136" priority="178" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AF25">
-    <cfRule type="cellIs" dxfId="135" priority="76" operator="greaterThan">
-      <formula>0.906</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="85" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="133" priority="175" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AG25">
-    <cfRule type="cellIs" dxfId="132" priority="71" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="131" priority="168" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="130" priority="187" operator="greaterThan">
-      <formula>0.604</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13:AG18">
-    <cfRule type="cellIs" dxfId="129" priority="188" operator="greaterThan">
-      <formula>0.7815</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG25 AJ24:AJ25">
-    <cfRule type="cellIs" dxfId="128" priority="84" operator="greaterThan">
-      <formula>0.76</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG25">
-    <cfRule type="cellIs" dxfId="127" priority="72" operator="greaterThan">
-      <formula>0.563</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="126" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH6:AH18">
-    <cfRule type="cellIs" dxfId="125" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AH25">
-    <cfRule type="cellIs" dxfId="123" priority="80" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="83" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="121" priority="171" operator="lessThan">
-      <formula>0.81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AI18">
-    <cfRule type="cellIs" dxfId="120" priority="185" operator="lessThan">
-      <formula>0.32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI24:AI25">
-    <cfRule type="cellIs" dxfId="119" priority="70" operator="lessThan">
-      <formula>0.81</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="75" operator="lessThan">
-      <formula>0.479</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="78" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="79" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="82" operator="lessThan">
-      <formula>0.195</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="114" priority="170" operator="greaterThan">
-      <formula>0.2205</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13:AJ18">
-    <cfRule type="cellIs" dxfId="113" priority="180" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="183" operator="greaterThan">
-      <formula>0.7385</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24:AJ25">
-    <cfRule type="cellIs" dxfId="111" priority="69" operator="greaterThan">
-      <formula>0.2205</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="74" operator="greaterThan">
-      <formula>0.5675</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="77" operator="greaterThan">
-      <formula>0.7605</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="108" priority="169" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="182" operator="greaterThan">
-      <formula>0.447</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13:AK18">
-    <cfRule type="cellIs" dxfId="106" priority="179" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="181" operator="greaterThan">
-      <formula>0.5875</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24:AK25">
-    <cfRule type="cellIs" dxfId="104" priority="68" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="73" operator="greaterThan">
-      <formula>0.427</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="81" operator="greaterThan">
-      <formula>0.62</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO6:AO9 AO13:AO15">
-    <cfRule type="cellIs" dxfId="101" priority="165" operator="greaterThan">
-      <formula>0.92</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13:AO15">
-    <cfRule type="cellIs" dxfId="100" priority="156" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24:AO25">
-    <cfRule type="cellIs" dxfId="99" priority="58" operator="greaterThan">
-      <formula>0.906</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="67" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="97" priority="155" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24:AP25">
-    <cfRule type="cellIs" dxfId="96" priority="53" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="95" priority="150" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="94" priority="163" operator="greaterThan">
-      <formula>0.604</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP13:AP15">
-    <cfRule type="cellIs" dxfId="93" priority="164" operator="greaterThan">
-      <formula>0.7815</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24:AP25 AS24:AS25">
-    <cfRule type="cellIs" dxfId="92" priority="66" operator="greaterThan">
-      <formula>0.76</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24:AP25">
-    <cfRule type="cellIs" dxfId="91" priority="54" operator="greaterThan">
-      <formula>0.563</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="90" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6:AQ15">
-    <cfRule type="cellIs" dxfId="89" priority="148" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="149" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24:AQ25">
-    <cfRule type="cellIs" dxfId="87" priority="62" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="65" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="85" priority="153" operator="lessThan">
-      <formula>0.81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR13:AR15">
-    <cfRule type="cellIs" dxfId="84" priority="162" operator="lessThan">
-      <formula>0.32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24:AR25">
-    <cfRule type="cellIs" dxfId="83" priority="52" operator="lessThan">
-      <formula>0.81</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="57" operator="lessThan">
-      <formula>0.479</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="60" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="61" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="64" operator="lessThan">
-      <formula>0.195</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="78" priority="152" operator="greaterThan">
-      <formula>0.2205</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS13:AS15">
-    <cfRule type="cellIs" dxfId="77" priority="158" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="161" operator="greaterThan">
-      <formula>0.7385</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS24:AS25">
-    <cfRule type="cellIs" dxfId="75" priority="51" operator="greaterThan">
-      <formula>0.2205</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="56" operator="greaterThan">
-      <formula>0.5675</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="greaterThan">
-      <formula>0.7605</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="72" priority="151" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="160" operator="greaterThan">
-      <formula>0.447</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT13:AT15">
-    <cfRule type="cellIs" dxfId="70" priority="157" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="159" operator="greaterThan">
-      <formula>0.5875</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT24:AT25">
-    <cfRule type="cellIs" dxfId="68" priority="50" operator="greaterThan">
-      <formula>0.1325</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="55" operator="greaterThan">
-      <formula>0.427</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="greaterThan">
-      <formula>0.62</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="65" priority="34" operator="greaterThan">
-      <formula>0.898</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N18">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N18">
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="greaterThan">
-      <formula>0.884</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="22" operator="greaterThan">
-      <formula>0.893</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:O18 R16:R18">
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:P18">
-    <cfRule type="cellIs" dxfId="58" priority="23" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="26" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:Q18">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="lessThan">
-      <formula>0.195</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:Q18">
-    <cfRule type="cellIs" dxfId="55" priority="19" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="lessThan">
-      <formula>0.24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16:R18">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="greaterThan">
-      <formula>0.7605</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16:S18">
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16:S18">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="greaterThan">
-      <formula>0.616</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
-      <formula>0.898</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="48" priority="14" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AK18">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16:AO18">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="greaterThan">
-      <formula>0.92</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16:AO18">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP16:AP18">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="greaterThan">
-      <formula>0.7815</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ16:AQ18">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR16:AR18">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="lessThan">
-      <formula>0.32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS16:AS18">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
-      <formula>0.77</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
-      <formula>0.7385</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT16:AT18">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
-      <formula>0.63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
-      <formula>0.5875</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16:AT18">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5074,10 +7613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EB822-0A82-415C-A215-29BF00E2AD44}">
-  <dimension ref="D4:J31"/>
+  <dimension ref="D4:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,8 +7904,100 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.441</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="4:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>20</v>
@@ -5438,239 +8069,238 @@
     </row>
     <row r="28" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E28" s="7">
-        <v>0.91700000000000004</v>
+        <v>0.872</v>
       </c>
       <c r="F28" s="7">
-        <v>0.83399999999999996</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="G28" s="7">
-        <v>0.68300000000000005</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="H28" s="7">
-        <v>0.25600000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="I28" s="7">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="J28" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="29" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E29" s="7">
-        <v>0.95599999999999996</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F29" s="7">
-        <v>0.77500000000000002</v>
+        <v>0.624</v>
       </c>
       <c r="G29" s="7">
-        <v>0.68700000000000006</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H29" s="7">
-        <v>0.31</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="I29" s="7">
-        <v>0.69399999999999995</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="J29" s="7">
-        <v>0.54200000000000004</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E30" s="7">
-        <v>0.872</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="F30" s="7">
-        <v>0.64100000000000001</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="G30" s="7">
-        <v>0.90600000000000003</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H30" s="7">
-        <v>0.254</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I30" s="7">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="J30" s="7">
-        <v>0.59799999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E31" s="7">
-        <v>0.85899999999999999</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="F31" s="7">
-        <v>0.624</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="G31" s="7">
-        <v>0.92200000000000004</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="H31" s="7">
-        <v>0.26600000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I31" s="7">
-        <v>0.73399999999999999</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="J31" s="7">
-        <v>0.58699999999999997</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
+    <row r="32" spans="4:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E6:E11">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="E6:E11 E26:E31">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="71" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E18">
+    <cfRule type="top10" dxfId="74" priority="17" rank="1"/>
+    <cfRule type="cellIs" dxfId="73" priority="51" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="46" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F11 I6:I11">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E22">
+    <cfRule type="top10" dxfId="71" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F11 I6:I11 F26:F31 I26:I31">
+    <cfRule type="cellIs" dxfId="70" priority="75" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F31 I26:I31">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="greaterThan">
+  <conditionalFormatting sqref="F15:F18 I15:I18">
+    <cfRule type="cellIs" dxfId="69" priority="50" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F18">
+    <cfRule type="top10" dxfId="68" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F22">
+    <cfRule type="top10" dxfId="67" priority="14" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F26:F31">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="56" operator="greaterThan">
       <formula>0.775</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="72" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="74" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G18">
+    <cfRule type="top10" dxfId="62" priority="13" rank="1"/>
+    <cfRule type="cellIs" dxfId="61" priority="49" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="45" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="47" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G22">
+    <cfRule type="top10" dxfId="58" priority="12" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G26:G31">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="greaterThan">
-      <formula>0.787</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
-      <formula>0.85</formula>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="greaterThan">
+      <formula>0.892</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H11">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="69" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H17">
+    <cfRule type="top10" dxfId="55" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="top10" dxfId="54" priority="9" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H26:H31">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="68" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I18">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="49" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I22">
+    <cfRule type="top10" dxfId="48" priority="7" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I26:I31">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="73" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J31">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E18">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
-      <formula>0.935</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F18 I15:I18">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>0.22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>0.78</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J15:J18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
+    <cfRule type="top10" dxfId="40" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F5132-79E6-449C-9A32-C6EAAEE29265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D77E161-8572-4377-8BF7-E0305C754274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="1395" windowWidth="16980" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Clients" sheetId="1" r:id="rId1"/>
@@ -321,2357 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="438">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="644">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4459,6 +2109,4416 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4980,8 +7040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AT26"/>
   <sheetViews>
-    <sheetView topLeftCell="AK17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19:AT19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6833,779 +8893,785 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="437" priority="319" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="321" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="284" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="403" priority="286" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="top10" dxfId="435" priority="77" rank="1"/>
+    <cfRule type="top10" dxfId="402" priority="79" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E18">
-    <cfRule type="top10" dxfId="434" priority="76" rank="1"/>
+    <cfRule type="top10" dxfId="401" priority="78" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E21">
-    <cfRule type="top10" dxfId="433" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="400" priority="75" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="432" priority="318" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="320" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="283" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="285" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="cellIs" dxfId="430" priority="212" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="397" priority="214" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="top10" dxfId="429" priority="72" rank="1"/>
+    <cfRule type="top10" dxfId="396" priority="74" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="top10" dxfId="428" priority="71" rank="1"/>
+    <cfRule type="top10" dxfId="395" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F21">
-    <cfRule type="top10" dxfId="427" priority="70" rank="1"/>
+    <cfRule type="top10" dxfId="394" priority="72" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F26 I25:I26">
-    <cfRule type="cellIs" dxfId="426" priority="211" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="213" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9">
-    <cfRule type="cellIs" dxfId="425" priority="324" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="326" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="328" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="391" priority="330" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G15">
-    <cfRule type="top10" dxfId="423" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="390" priority="62" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G18">
-    <cfRule type="top10" dxfId="422" priority="59" rank="1"/>
+    <cfRule type="top10" dxfId="389" priority="61" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="top10" dxfId="421" priority="58" rank="1"/>
+    <cfRule type="top10" dxfId="388" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="420" priority="210" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="212" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="207" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="209" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9">
-    <cfRule type="cellIs" dxfId="418" priority="327" operator="lessThan">
+    <cfRule type="cellIs" dxfId="385" priority="329" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="top10" dxfId="417" priority="57" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="384" priority="59" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
-    <cfRule type="top10" dxfId="416" priority="56" rank="1"/>
+    <cfRule type="top10" dxfId="383" priority="58" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H21">
-    <cfRule type="top10" dxfId="415" priority="55" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="382" priority="57" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H26">
-    <cfRule type="cellIs" dxfId="414" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="381" priority="211" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="380" priority="199" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="379" priority="198" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="top10" dxfId="411" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="378" priority="56" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
-    <cfRule type="top10" dxfId="410" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="377" priority="55" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="top10" dxfId="409" priority="52" rank="1"/>
+    <cfRule type="top10" dxfId="376" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I26">
-    <cfRule type="cellIs" dxfId="408" priority="195" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="197" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J9 E22">
-    <cfRule type="cellIs" dxfId="407" priority="325" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="327" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="top10" dxfId="406" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="373" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="top10" dxfId="405" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="372" priority="52" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="top10" dxfId="404" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="371" priority="51" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J26">
-    <cfRule type="cellIs" dxfId="403" priority="208" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="370" priority="210" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9">
-    <cfRule type="cellIs" dxfId="402" priority="317" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="319" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N15">
-    <cfRule type="top10" dxfId="401" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="368" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N18">
-    <cfRule type="top10" dxfId="400" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="367" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21">
-    <cfRule type="top10" dxfId="399" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="366" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26">
-    <cfRule type="cellIs" dxfId="398" priority="193" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="195" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="364" priority="186" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="396" priority="281" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="283" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="top10" dxfId="395" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="362" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O18">
-    <cfRule type="top10" dxfId="394" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="361" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O21">
-    <cfRule type="top10" dxfId="393" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="360" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O26 R25:R26">
-    <cfRule type="cellIs" dxfId="392" priority="192" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="194" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P9">
-    <cfRule type="cellIs" dxfId="391" priority="227" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="358" priority="229" operator="greaterThan">
       <formula>0.764</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P15">
-    <cfRule type="top10" dxfId="390" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="357" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P18">
-    <cfRule type="cellIs" dxfId="389" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="109" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="355" priority="106" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="387" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="354" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P21">
-    <cfRule type="top10" dxfId="386" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="353" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P26">
-    <cfRule type="cellIs" dxfId="385" priority="191" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="352" priority="193" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="188" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="190" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="383" priority="280" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="282" operator="lessThan">
       <formula>0.485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="top10" dxfId="382" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="349" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q18">
-    <cfRule type="cellIs" dxfId="381" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="102" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="108" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="103" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="378" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="345" priority="37" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:Q21">
-    <cfRule type="top10" dxfId="377" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="344" priority="47" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q26">
-    <cfRule type="cellIs" dxfId="376" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="192" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="189" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="188" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="185" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="372" priority="278" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="280" operator="greaterThan">
       <formula>0.589</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R15">
-    <cfRule type="top10" dxfId="371" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="338" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R18">
-    <cfRule type="top10" dxfId="370" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="337" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R21">
-    <cfRule type="top10" dxfId="369" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="336" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R26">
-    <cfRule type="cellIs" dxfId="368" priority="182" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="184" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="185" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="187" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="366" priority="276" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="278" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="top10" dxfId="365" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="332" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S18">
-    <cfRule type="cellIs" dxfId="364" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="100" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="107" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="362" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="329" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="361" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="97" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:S21">
-    <cfRule type="top10" dxfId="360" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="327" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:S26">
-    <cfRule type="cellIs" dxfId="359" priority="181" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="183" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="189" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="325" priority="191" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7 W13:W14">
-    <cfRule type="cellIs" dxfId="357" priority="304" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="306" operator="greaterThan">
       <formula>0.93</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W14">
-    <cfRule type="cellIs" dxfId="356" priority="293" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="295" operator="greaterThan">
       <formula>0.8715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:W16">
-    <cfRule type="top10" dxfId="355" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="322" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:W18">
-    <cfRule type="top10" dxfId="354" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="321" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W26">
-    <cfRule type="cellIs" dxfId="353" priority="180" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="182" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="173" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X16 AA13:AA16">
-    <cfRule type="cellIs" dxfId="351" priority="303" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="305" operator="greaterThan">
       <formula>0.768</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X16">
-    <cfRule type="cellIs" dxfId="350" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="294" operator="greaterThan">
       <formula>0.667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X18">
-    <cfRule type="top10" dxfId="349" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="316" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X26 AA25:AA26">
-    <cfRule type="cellIs" dxfId="348" priority="179" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="181" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X26">
-    <cfRule type="cellIs" dxfId="347" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="169" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Y7 Y13:Y16">
-    <cfRule type="cellIs" dxfId="346" priority="300" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="313" priority="302" operator="greaterThan">
       <formula>0.794</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Y16">
-    <cfRule type="top10" dxfId="345" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="312" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y18">
-    <cfRule type="top10" dxfId="344" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="311" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25:Y26">
-    <cfRule type="cellIs" dxfId="343" priority="175" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="177" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="180" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z7 Z13:Z16">
-    <cfRule type="cellIs" dxfId="341" priority="302" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="304" operator="lessThan">
       <formula>0.255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="top10" dxfId="340" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="307" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="top10" dxfId="339" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="306" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:Z26">
-    <cfRule type="cellIs" dxfId="338" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="172" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="176" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="179" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="175" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA16">
-    <cfRule type="cellIs" dxfId="334" priority="291" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="293" operator="greaterThan">
       <formula>0.7355</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AA16">
-    <cfRule type="top10" dxfId="333" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="300" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA18">
-    <cfRule type="top10" dxfId="332" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="299" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25:AA26">
-    <cfRule type="cellIs" dxfId="331" priority="172" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="174" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="171" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AB7 AB13:AB16">
-    <cfRule type="cellIs" dxfId="329" priority="301" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="303" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB16">
-    <cfRule type="cellIs" dxfId="328" priority="290" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="292" operator="greaterThan">
       <formula>0.5845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AB16">
-    <cfRule type="top10" dxfId="327" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="294" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17:AB18">
-    <cfRule type="top10" dxfId="326" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="293" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25:AB26">
-    <cfRule type="cellIs" dxfId="325" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="178" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="168" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="170" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF9 AF13:AF18">
-    <cfRule type="cellIs" dxfId="323" priority="274" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="276" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AF18">
-    <cfRule type="cellIs" dxfId="322" priority="259" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="261" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF19:AF21">
-    <cfRule type="top10" dxfId="321" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="288" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AF26">
-    <cfRule type="cellIs" dxfId="320" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="168" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="157" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="159" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="318" priority="256" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="258" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AG26">
-    <cfRule type="cellIs" dxfId="317" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="154" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="316" priority="249" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AK18">
-    <cfRule type="cellIs" dxfId="315" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="314" priority="268" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="270" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG18">
-    <cfRule type="cellIs" dxfId="313" priority="269" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="271" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19:AG21">
-    <cfRule type="top10" dxfId="312" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="279" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG26 AJ25:AJ26">
-    <cfRule type="cellIs" dxfId="311" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="167" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG26">
-    <cfRule type="cellIs" dxfId="310" priority="153" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="155" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="309" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH18">
-    <cfRule type="cellIs" dxfId="308" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="249" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19:AH21">
-    <cfRule type="top10" dxfId="306" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="273" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH25:AH26">
-    <cfRule type="cellIs" dxfId="305" priority="164" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="166" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="161" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="163" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="303" priority="252" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="254" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI18">
-    <cfRule type="cellIs" dxfId="302" priority="266" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="268" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19:AI21">
-    <cfRule type="top10" dxfId="301" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="268" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI26">
-    <cfRule type="cellIs" dxfId="300" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="153" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="162" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="161" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="158" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="165" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="295" priority="251" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="253" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AJ18">
-    <cfRule type="cellIs" dxfId="294" priority="261" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="263" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="264" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="266" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ21">
-    <cfRule type="top10" dxfId="292" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="259" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AJ26">
-    <cfRule type="cellIs" dxfId="291" priority="158" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="160" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="155" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="157" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="152" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="288" priority="263" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="265" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="250" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="252" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AK18">
-    <cfRule type="cellIs" dxfId="286" priority="260" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="262" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="262" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="264" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19:AK21">
-    <cfRule type="top10" dxfId="284" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="251" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AK26">
-    <cfRule type="cellIs" dxfId="283" priority="162" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="164" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="151" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="156" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AO9">
-    <cfRule type="cellIs" dxfId="280" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="248" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AO18">
-    <cfRule type="cellIs" dxfId="279" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="87" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="94" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO21">
-    <cfRule type="top10" dxfId="277" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="244" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AO26">
-    <cfRule type="cellIs" dxfId="276" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="141" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="150" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="274" priority="236" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="238" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AP26">
-    <cfRule type="cellIs" dxfId="273" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="136" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="272" priority="231" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="233" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO16:AT18">
-    <cfRule type="cellIs" dxfId="271" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="270" priority="244" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="246" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13:AP18">
-    <cfRule type="cellIs" dxfId="269" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="93" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP19:AP21">
-    <cfRule type="top10" dxfId="268" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="235" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26 AS25:AS26">
-    <cfRule type="cellIs" dxfId="267" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="149" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26">
-    <cfRule type="cellIs" dxfId="266" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="137" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="265" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ18">
-    <cfRule type="cellIs" dxfId="264" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:AQ21">
-    <cfRule type="top10" dxfId="262" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="229" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ25:AQ26">
-    <cfRule type="cellIs" dxfId="261" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="145" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="148" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="259" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="236" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR13:AR18">
-    <cfRule type="cellIs" dxfId="258" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="92" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AR21">
-    <cfRule type="top10" dxfId="257" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="224" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR25:AR26">
-    <cfRule type="cellIs" dxfId="256" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="144" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="140" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="147" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="143" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="135" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="251" priority="233" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="235" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13:AS18">
-    <cfRule type="cellIs" dxfId="250" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="89" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="91" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AS21">
-    <cfRule type="top10" dxfId="248" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="215" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS25:AS26">
-    <cfRule type="cellIs" dxfId="247" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="134" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="142" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="139" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="244" priority="241" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="243" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="232" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="234" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AT18">
-    <cfRule type="cellIs" dxfId="242" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="88" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="90" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19:AT21">
-    <cfRule type="top10" dxfId="240" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="207" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT25:AT26">
-    <cfRule type="cellIs" dxfId="239" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="133" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="138" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="146" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E9">
+    <cfRule type="top10" dxfId="203" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F9">
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7615,7 +9681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EB822-0A82-415C-A215-29BF00E2AD44}">
   <dimension ref="D4:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J19" sqref="J19:J22"/>
     </sheetView>
   </sheetViews>
@@ -8165,142 +10231,142 @@
     <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E6:E11 E26:E31">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="643" priority="76" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="642" priority="71" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E18">
-    <cfRule type="top10" dxfId="74" priority="17" rank="1"/>
-    <cfRule type="cellIs" dxfId="73" priority="51" operator="greaterThan">
+    <cfRule type="top10" dxfId="641" priority="17" rank="1"/>
+    <cfRule type="cellIs" dxfId="640" priority="51" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="639" priority="46" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="top10" dxfId="71" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="638" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 I6:I11 F26:F31 I26:I31">
-    <cfRule type="cellIs" dxfId="70" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="637" priority="75" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F18 I15:I18">
-    <cfRule type="cellIs" dxfId="69" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="636" priority="50" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F18">
-    <cfRule type="top10" dxfId="68" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="635" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F22">
-    <cfRule type="top10" dxfId="67" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="634" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F31">
-    <cfRule type="cellIs" dxfId="66" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="633" priority="56" operator="greaterThan">
       <formula>0.775</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="632" priority="70" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="631" priority="72" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="630" priority="74" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G18">
-    <cfRule type="top10" dxfId="62" priority="13" rank="1"/>
-    <cfRule type="cellIs" dxfId="61" priority="49" operator="greaterThan">
+    <cfRule type="top10" dxfId="629" priority="13" rank="1"/>
+    <cfRule type="cellIs" dxfId="628" priority="45" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="49" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="626" priority="47" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G22">
-    <cfRule type="top10" dxfId="58" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="625" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G31">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="624" priority="60" operator="greaterThan">
       <formula>0.892</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H11">
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="623" priority="69" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H17">
-    <cfRule type="top10" dxfId="55" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="622" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H22">
-    <cfRule type="top10" dxfId="54" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="621" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H31">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="620" priority="54" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="619" priority="59" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11">
-    <cfRule type="cellIs" dxfId="51" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="618" priority="68" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I18">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="greaterThan">
+    <cfRule type="top10" dxfId="617" priority="8" rank="1"/>
+    <cfRule type="cellIs" dxfId="616" priority="43" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="49" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="top10" dxfId="48" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="615" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I31">
-    <cfRule type="cellIs" dxfId="47" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="614" priority="53" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="613" priority="58" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="45" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="612" priority="67" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="611" priority="73" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J18">
+    <cfRule type="top10" dxfId="610" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="top10" dxfId="609" priority="1" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J26:J31">
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="608" priority="63" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="57" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="606" priority="52" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="57" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J18">
-    <cfRule type="top10" dxfId="40" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J22">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D77E161-8572-4377-8BF7-E0305C754274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B11EA-4FF8-4B8D-A673-19358A26E551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9681,7 +9681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EB822-0A82-415C-A215-29BF00E2AD44}">
   <dimension ref="D4:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J19" sqref="J19:J22"/>
     </sheetView>
   </sheetViews>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15426B4-C022-4B5C-987C-71CA941EE8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA2B68F-71D2-4178-A2CF-C51DC97EB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1920" windowWidth="16980" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11805" yWindow="1485" windowWidth="16980" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Clients" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="50">
   <si>
     <t>Accuracy</t>
   </si>
@@ -149,6 +149,33 @@
   </si>
   <si>
     <t>MoNuSeg on MICCAI</t>
+  </si>
+  <si>
+    <t>MICCAI BNS TNBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External Test Data</t>
+  </si>
+  <si>
+    <t>TNBC</t>
+  </si>
+  <si>
+    <t>TNBC on MoNuSeg</t>
+  </si>
+  <si>
+    <t>Cross-dataset</t>
+  </si>
+  <si>
+    <t>TNBC on MICCAI</t>
+  </si>
+  <si>
+    <t>TNBC on BNS</t>
+  </si>
+  <si>
+    <t>MICCAI MONUSEG TNBC</t>
+  </si>
+  <si>
+    <t>BNS MONUSEG TNBC</t>
   </si>
 </sst>
 </file>
@@ -321,7 +348,627 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="261">
+  <dxfs count="323">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3210,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="S12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V12" sqref="V12:AB18"/>
     </sheetView>
   </sheetViews>
@@ -5063,783 +5710,783 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="260" priority="286" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="286" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="321" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="321" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E9">
-    <cfRule type="top10" dxfId="258" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="320" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="top10" dxfId="257" priority="79" rank="1"/>
+    <cfRule type="top10" dxfId="319" priority="79" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E18">
-    <cfRule type="top10" dxfId="256" priority="78" rank="1"/>
+    <cfRule type="top10" dxfId="318" priority="78" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E21">
-    <cfRule type="top10" dxfId="255" priority="75" rank="1"/>
+    <cfRule type="top10" dxfId="317" priority="75" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="254" priority="320" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="320" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="285" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="285" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="cellIs" dxfId="252" priority="214" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="214" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="top10" dxfId="251" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="313" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="top10" dxfId="250" priority="74" rank="1"/>
+    <cfRule type="top10" dxfId="312" priority="74" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="top10" dxfId="249" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="311" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F21">
-    <cfRule type="top10" dxfId="248" priority="72" rank="1"/>
+    <cfRule type="top10" dxfId="310" priority="72" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F26 I25:I26">
-    <cfRule type="cellIs" dxfId="247" priority="213" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="213" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9">
-    <cfRule type="cellIs" dxfId="246" priority="330" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="330" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="326" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="326" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G15">
-    <cfRule type="top10" dxfId="244" priority="62" rank="1"/>
+    <cfRule type="top10" dxfId="306" priority="62" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G18">
-    <cfRule type="top10" dxfId="243" priority="61" rank="1"/>
+    <cfRule type="top10" dxfId="305" priority="61" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="top10" dxfId="242" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="304" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="241" priority="212" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="212" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="209" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="209" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9">
-    <cfRule type="cellIs" dxfId="239" priority="329" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="329" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="top10" dxfId="238" priority="59" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="300" priority="59" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
-    <cfRule type="top10" dxfId="237" priority="58" rank="1"/>
+    <cfRule type="top10" dxfId="299" priority="58" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H21">
-    <cfRule type="top10" dxfId="236" priority="57" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="298" priority="57" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H26">
-    <cfRule type="cellIs" dxfId="235" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="199" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="211" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="198" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="top10" dxfId="232" priority="56" rank="1"/>
+    <cfRule type="top10" dxfId="294" priority="56" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
-    <cfRule type="top10" dxfId="231" priority="55" rank="1"/>
+    <cfRule type="top10" dxfId="293" priority="55" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="top10" dxfId="230" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="292" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I26">
-    <cfRule type="cellIs" dxfId="229" priority="197" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="197" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J9 E22">
-    <cfRule type="cellIs" dxfId="228" priority="327" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="327" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="top10" dxfId="227" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="289" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="top10" dxfId="226" priority="52" rank="1"/>
+    <cfRule type="top10" dxfId="288" priority="52" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="top10" dxfId="225" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="287" priority="51" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J26">
-    <cfRule type="cellIs" dxfId="224" priority="210" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="210" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9">
-    <cfRule type="cellIs" dxfId="223" priority="319" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="319" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N15">
-    <cfRule type="top10" dxfId="222" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="284" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N18">
-    <cfRule type="top10" dxfId="221" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="283" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21">
-    <cfRule type="top10" dxfId="220" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="282" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26">
-    <cfRule type="cellIs" dxfId="219" priority="186" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="186" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="195" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="195" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="217" priority="283" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="283" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="top10" dxfId="216" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="278" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O18">
-    <cfRule type="top10" dxfId="215" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="277" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O21">
-    <cfRule type="top10" dxfId="214" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="276" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O26 R25:R26">
-    <cfRule type="cellIs" dxfId="213" priority="194" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="194" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P9">
-    <cfRule type="cellIs" dxfId="212" priority="229" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="229" operator="greaterThan">
       <formula>0.764</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P15">
-    <cfRule type="top10" dxfId="211" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="273" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P18">
-    <cfRule type="cellIs" dxfId="210" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="106" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="109" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="208" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="270" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P21">
-    <cfRule type="top10" dxfId="207" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="269" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P26">
-    <cfRule type="cellIs" dxfId="206" priority="193" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="193" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="190" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="190" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="204" priority="282" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="282" operator="lessThan">
       <formula>0.485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="top10" dxfId="203" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="265" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q18">
-    <cfRule type="top10" dxfId="202" priority="37" bottom="1" rank="1"/>
-    <cfRule type="cellIs" dxfId="201" priority="108" operator="lessThan">
+    <cfRule type="top10" dxfId="264" priority="37" bottom="1" rank="1"/>
+    <cfRule type="cellIs" dxfId="263" priority="108" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="103" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="102" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:Q21">
-    <cfRule type="top10" dxfId="198" priority="47" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="260" priority="47" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q26">
-    <cfRule type="cellIs" dxfId="197" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="192" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="189" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="188" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="185" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="193" priority="280" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="280" operator="greaterThan">
       <formula>0.589</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R15">
-    <cfRule type="top10" dxfId="192" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="254" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R18">
-    <cfRule type="top10" dxfId="191" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="253" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R21">
-    <cfRule type="top10" dxfId="190" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="252" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R26">
-    <cfRule type="cellIs" dxfId="189" priority="187" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="187" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="184" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="187" priority="278" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="278" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="top10" dxfId="186" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="248" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S18">
-    <cfRule type="cellIs" dxfId="185" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="100" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="184" priority="32" rank="1"/>
-    <cfRule type="cellIs" dxfId="183" priority="107" operator="greaterThan">
+    <cfRule type="top10" dxfId="246" priority="32" rank="1"/>
+    <cfRule type="cellIs" dxfId="245" priority="107" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="182" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="97" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:S21">
-    <cfRule type="top10" dxfId="181" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="243" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:S26">
-    <cfRule type="cellIs" dxfId="180" priority="191" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="191" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="183" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="183" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7 W13:W14">
-    <cfRule type="cellIs" dxfId="178" priority="306" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="306" operator="greaterThan">
       <formula>0.93</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W14">
-    <cfRule type="cellIs" dxfId="177" priority="295" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="295" operator="greaterThan">
       <formula>0.8715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:W16">
-    <cfRule type="top10" dxfId="176" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="238" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:W18">
-    <cfRule type="top10" dxfId="175" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="237" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W26">
-    <cfRule type="cellIs" dxfId="174" priority="182" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="182" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="173" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="173" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X16 AA13:AA16">
-    <cfRule type="cellIs" dxfId="172" priority="305" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="305" operator="greaterThan">
       <formula>0.768</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X16">
-    <cfRule type="cellIs" dxfId="171" priority="294" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="294" operator="greaterThan">
       <formula>0.667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X18">
-    <cfRule type="top10" dxfId="170" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="232" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X26 AA25:AA26">
-    <cfRule type="cellIs" dxfId="169" priority="181" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="181" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X26">
-    <cfRule type="cellIs" dxfId="168" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="169" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Y7 Y13:Y16">
-    <cfRule type="cellIs" dxfId="167" priority="302" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="302" operator="greaterThan">
       <formula>0.794</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Y16">
-    <cfRule type="top10" dxfId="166" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="228" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y18">
-    <cfRule type="top10" dxfId="165" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="227" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25:Y26">
-    <cfRule type="cellIs" dxfId="164" priority="180" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="180" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="177" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="177" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z7 Z13:Z16">
-    <cfRule type="cellIs" dxfId="162" priority="304" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="304" operator="lessThan">
       <formula>0.255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="top10" dxfId="161" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="223" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="top10" dxfId="160" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="222" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:Z26">
-    <cfRule type="cellIs" dxfId="159" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="179" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="176" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="175" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="172" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA16">
-    <cfRule type="cellIs" dxfId="155" priority="293" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="293" operator="greaterThan">
       <formula>0.7355</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AA16">
-    <cfRule type="top10" dxfId="154" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="216" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA18">
-    <cfRule type="top10" dxfId="153" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="215" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25:AA26">
-    <cfRule type="cellIs" dxfId="152" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="171" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="174" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AB7 AB13:AB16">
-    <cfRule type="cellIs" dxfId="150" priority="303" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="303" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB16">
-    <cfRule type="cellIs" dxfId="149" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="292" operator="greaterThan">
       <formula>0.5845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AB16">
-    <cfRule type="top10" dxfId="148" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="210" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17:AB18">
-    <cfRule type="top10" dxfId="147" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="209" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25:AB26">
-    <cfRule type="cellIs" dxfId="146" priority="170" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="170" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="178" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF9 AF13:AF18">
-    <cfRule type="cellIs" dxfId="144" priority="276" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="276" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AF18">
-    <cfRule type="cellIs" dxfId="143" priority="261" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="261" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF19:AF21">
-    <cfRule type="top10" dxfId="142" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="204" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AF26">
-    <cfRule type="cellIs" dxfId="141" priority="159" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="159" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="168" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="168" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="139" priority="258" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="258" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AG26">
-    <cfRule type="cellIs" dxfId="138" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="154" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="137" priority="251" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AK18">
-    <cfRule type="cellIs" dxfId="136" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="135" priority="270" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="270" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG18">
-    <cfRule type="cellIs" dxfId="134" priority="271" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="271" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19:AG21">
-    <cfRule type="top10" dxfId="133" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="195" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG26 AJ25:AJ26">
-    <cfRule type="cellIs" dxfId="132" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="167" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG26">
-    <cfRule type="cellIs" dxfId="131" priority="155" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="155" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="130" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH18">
-    <cfRule type="cellIs" dxfId="129" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="249" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19:AH21">
-    <cfRule type="top10" dxfId="127" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="189" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH25:AH26">
-    <cfRule type="cellIs" dxfId="126" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="166" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="163" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="163" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="124" priority="254" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="254" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI18">
-    <cfRule type="cellIs" dxfId="123" priority="268" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="268" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19:AI21">
-    <cfRule type="top10" dxfId="122" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="184" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI26">
-    <cfRule type="cellIs" dxfId="121" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="162" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="153" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="161" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="165" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="158" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="116" priority="253" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="253" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AJ18">
-    <cfRule type="cellIs" dxfId="115" priority="263" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="263" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="266" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="266" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ21">
-    <cfRule type="top10" dxfId="113" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AJ26">
-    <cfRule type="cellIs" dxfId="112" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="152" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="160" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="160" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="157" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="157" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="109" priority="265" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="265" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="252" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="252" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AK18">
-    <cfRule type="cellIs" dxfId="107" priority="264" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="264" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="262" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="262" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19:AK21">
-    <cfRule type="top10" dxfId="105" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AK26">
-    <cfRule type="cellIs" dxfId="104" priority="164" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="164" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="151" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="156" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="156" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AO9">
-    <cfRule type="cellIs" dxfId="101" priority="248" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="248" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AO18">
-    <cfRule type="cellIs" dxfId="100" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="94" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="87" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO21">
-    <cfRule type="top10" dxfId="98" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="160" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AO26">
-    <cfRule type="cellIs" dxfId="97" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="150" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="141" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="95" priority="238" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="238" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AP26">
-    <cfRule type="cellIs" dxfId="94" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="136" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="93" priority="233" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="233" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO16:AT18">
-    <cfRule type="cellIs" dxfId="92" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="91" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="246" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13:AP18">
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="93" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP19:AP21">
-    <cfRule type="top10" dxfId="89" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26 AS25:AS26">
-    <cfRule type="cellIs" dxfId="88" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26">
-    <cfRule type="cellIs" dxfId="87" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="137" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="86" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ18">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:AQ21">
-    <cfRule type="top10" dxfId="83" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ25:AQ26">
-    <cfRule type="cellIs" dxfId="82" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="148" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="80" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="236" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR13:AR18">
-    <cfRule type="cellIs" dxfId="79" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="92" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AR21">
-    <cfRule type="top10" dxfId="78" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR25:AR26">
-    <cfRule type="cellIs" dxfId="77" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="144" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="147" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="72" priority="235" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="235" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13:AS18">
-    <cfRule type="cellIs" dxfId="71" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="89" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="91" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AS21">
-    <cfRule type="top10" dxfId="69" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="131" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS25:AS26">
-    <cfRule type="cellIs" dxfId="68" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="139" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="134" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="142" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="65" priority="234" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="234" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="243" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="243" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AT18">
-    <cfRule type="cellIs" dxfId="63" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="90" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="88" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19:AT21">
-    <cfRule type="top10" dxfId="61" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT25:AT26">
-    <cfRule type="cellIs" dxfId="60" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="133" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="146" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5849,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EB822-0A82-415C-A215-29BF00E2AD44}">
-  <dimension ref="D4:S35"/>
+  <dimension ref="D4:AB61"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E22"/>
+    <sheetView tabSelected="1" topLeftCell="R46" workbookViewId="0">
+      <selection activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,6 +6508,8 @@
     <col min="5" max="10" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="28.28515625" customWidth="1"/>
     <col min="14" max="19" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" customWidth="1"/>
+    <col min="23" max="28" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6616,7 +7265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
@@ -6881,209 +7530,1639 @@
       </c>
     </row>
     <row r="32" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.878</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="X35" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="X36" s="7">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0.317</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="X37" s="7">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.871</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="X38" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="X39" s="7">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="40" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.745</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.627</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0.751</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="X40" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0.254</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="X44" s="7">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0.504</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="X45" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>0.253</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>0.747</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.754</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0.755</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="X46" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>0.751</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.497</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="X47" s="7">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.626</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0.501</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="S51" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="X51" s="7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="X52" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.749</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0.307</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="S53" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="X53" s="7">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0.253</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="54" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>0.376</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="X55" s="7">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.216</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0.371</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="S56" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="X56" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="4:28" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E6:E11 E26:E31">
-    <cfRule type="cellIs" dxfId="57" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="217" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="212" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E22">
-    <cfRule type="top10" dxfId="55" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="117" priority="80" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E40">
+    <cfRule type="cellIs" dxfId="116" priority="74" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="79" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E47">
+    <cfRule type="top10" dxfId="114" priority="379" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E56">
+    <cfRule type="top10" dxfId="113" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 I6:I11 F26:F31 I26:I31">
-    <cfRule type="cellIs" dxfId="54" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="216" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F22">
-    <cfRule type="top10" dxfId="53" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="111" priority="81" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F31">
-    <cfRule type="cellIs" dxfId="52" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="197" operator="greaterThan">
       <formula>0.775</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F40">
+    <cfRule type="cellIs" dxfId="109" priority="78" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="108" priority="54" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F47">
+    <cfRule type="top10" dxfId="107" priority="380" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F56">
+    <cfRule type="top10" dxfId="106" priority="47" rank="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="51" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="215" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="213" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="211" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G22">
-    <cfRule type="top10" dxfId="48" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="82" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G31">
-    <cfRule type="cellIs" dxfId="47" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="201" operator="greaterThan">
       <formula>0.892</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G40">
+    <cfRule type="top10" dxfId="100" priority="53" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G47">
+    <cfRule type="top10" dxfId="99" priority="381" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G56">
+    <cfRule type="top10" dxfId="98" priority="46" rank="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H6:H11">
-    <cfRule type="cellIs" dxfId="46" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="210" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H22">
-    <cfRule type="top10" dxfId="45" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="88" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H31">
-    <cfRule type="cellIs" dxfId="44" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="200" operator="lessThan">
+      <formula>0.22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="195" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="121" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H40">
+    <cfRule type="top10" dxfId="93" priority="49" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H47">
+    <cfRule type="top10" dxfId="92" priority="382" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H56">
+    <cfRule type="top10" dxfId="91" priority="45" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I11">
+    <cfRule type="cellIs" dxfId="90" priority="209" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I22">
+    <cfRule type="top10" dxfId="89" priority="83" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I31">
+    <cfRule type="cellIs" dxfId="88" priority="199" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="194" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I40">
+    <cfRule type="top10" dxfId="86" priority="51" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I47">
+    <cfRule type="top10" dxfId="85" priority="383" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I56">
+    <cfRule type="top10" dxfId="84" priority="44" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="cellIs" dxfId="83" priority="214" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="208" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J22">
+    <cfRule type="top10" dxfId="81" priority="84" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J31">
+    <cfRule type="cellIs" dxfId="80" priority="193" operator="greaterThan">
+      <formula>0.61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="198" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="204" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J40">
+    <cfRule type="top10" dxfId="77" priority="50" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J47">
+    <cfRule type="top10" dxfId="76" priority="384" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J56">
+    <cfRule type="top10" dxfId="75" priority="43" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N11 N26:N31">
+    <cfRule type="cellIs" dxfId="74" priority="141" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="136" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N11">
+    <cfRule type="top10" dxfId="72" priority="97" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N22">
+    <cfRule type="top10" dxfId="71" priority="91" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:N31">
+    <cfRule type="top10" dxfId="70" priority="103" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:N40">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="67" priority="22" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:N47">
+    <cfRule type="top10" dxfId="66" priority="37" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:N56">
+    <cfRule type="top10" dxfId="65" priority="28" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11 R6:R11 O26:O31 R26:R31">
+    <cfRule type="cellIs" dxfId="64" priority="140" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="top10" dxfId="63" priority="96" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O22">
+    <cfRule type="top10" dxfId="62" priority="90" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O31">
+    <cfRule type="top10" dxfId="61" priority="102" rank="2"/>
+    <cfRule type="cellIs" dxfId="60" priority="126" operator="greaterThan">
+      <formula>0.775</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:O40">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="58" priority="33" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:O47">
+    <cfRule type="top10" dxfId="57" priority="38" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:O56">
+    <cfRule type="top10" dxfId="56" priority="27" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P11">
+    <cfRule type="top10" dxfId="55" priority="95" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P22">
+    <cfRule type="top10" dxfId="54" priority="89" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P31">
+    <cfRule type="top10" dxfId="53" priority="101" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:P40">
+    <cfRule type="top10" dxfId="52" priority="32" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P47">
+    <cfRule type="top10" dxfId="51" priority="39" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51:P56">
+    <cfRule type="top10" dxfId="50" priority="26" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q11">
+    <cfRule type="cellIs" dxfId="49" priority="134" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I11">
-    <cfRule type="cellIs" dxfId="42" priority="130" operator="greaterThan">
+    <cfRule type="top10" dxfId="48" priority="94" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15:Q22">
+    <cfRule type="top10" dxfId="47" priority="87" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q31">
+    <cfRule type="top10" dxfId="46" priority="100" bottom="1" rank="2"/>
+    <cfRule type="cellIs" dxfId="45" priority="125" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="129" operator="lessThan">
+      <formula>0.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:Q40">
+    <cfRule type="top10" dxfId="43" priority="29" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:Q47">
+    <cfRule type="top10" dxfId="42" priority="40" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51:Q56">
+    <cfRule type="top10" dxfId="41" priority="25" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R11">
+    <cfRule type="top10" dxfId="40" priority="93" rank="2"/>
+    <cfRule type="cellIs" dxfId="39" priority="133" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I22">
-    <cfRule type="top10" dxfId="41" priority="4" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I31">
-    <cfRule type="cellIs" dxfId="40" priority="115" operator="greaterThan">
+  <conditionalFormatting sqref="R15:R22">
+    <cfRule type="top10" dxfId="38" priority="86" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:R31">
+    <cfRule type="top10" dxfId="37" priority="99" rank="2"/>
+    <cfRule type="cellIs" dxfId="36" priority="124" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="128" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="38" priority="129" operator="greaterThan">
+  <conditionalFormatting sqref="R35:R40">
+    <cfRule type="top10" dxfId="34" priority="31" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:R47">
+    <cfRule type="top10" dxfId="33" priority="41" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51:R56">
+    <cfRule type="top10" dxfId="32" priority="24" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S11">
+    <cfRule type="cellIs" dxfId="31" priority="138" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="30" priority="92" rank="2"/>
+    <cfRule type="cellIs" dxfId="29" priority="132" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="135" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15:S22">
+    <cfRule type="top10" dxfId="28" priority="85" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S31">
+    <cfRule type="top10" dxfId="27" priority="98" rank="2"/>
+    <cfRule type="cellIs" dxfId="26" priority="131" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J22">
-    <cfRule type="top10" dxfId="36" priority="5" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J31">
-    <cfRule type="cellIs" dxfId="35" priority="125" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="127" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="123" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="119" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N11 N26:N31">
-    <cfRule type="cellIs" dxfId="32" priority="62" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35:S40">
+    <cfRule type="top10" dxfId="23" priority="30" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:S47">
+    <cfRule type="top10" dxfId="22" priority="42" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:S56">
+    <cfRule type="top10" dxfId="21" priority="23" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W35:W40">
+    <cfRule type="top10" dxfId="18" priority="1" rank="2"/>
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="greaterThan">
-      <formula>0.935</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N11">
-    <cfRule type="top10" dxfId="30" priority="18" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N22">
-    <cfRule type="top10" dxfId="29" priority="12" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N31">
-    <cfRule type="top10" dxfId="28" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11 R6:R11 O26:O31 R26:R31">
-    <cfRule type="cellIs" dxfId="27" priority="61" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44:W47">
+    <cfRule type="top10" dxfId="17" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W51:W56">
+    <cfRule type="top10" dxfId="16" priority="7" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35:X40">
+    <cfRule type="top10" dxfId="14" priority="12" rank="2"/>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="top10" dxfId="26" priority="17" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O22">
-    <cfRule type="top10" dxfId="25" priority="11" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O31">
-    <cfRule type="top10" dxfId="24" priority="23" rank="2"/>
-    <cfRule type="cellIs" dxfId="23" priority="47" operator="greaterThan">
-      <formula>0.775</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P11">
-    <cfRule type="top10" dxfId="22" priority="16" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P22">
-    <cfRule type="top10" dxfId="21" priority="10" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P31">
-    <cfRule type="top10" dxfId="20" priority="22" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q11">
-    <cfRule type="cellIs" dxfId="19" priority="55" operator="lessThan">
-      <formula>0.22</formula>
-    </cfRule>
-    <cfRule type="top10" dxfId="18" priority="15" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q22">
-    <cfRule type="top10" dxfId="17" priority="8" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q31">
-    <cfRule type="top10" dxfId="16" priority="21" bottom="1" rank="2"/>
-    <cfRule type="cellIs" dxfId="15" priority="50" operator="lessThan">
-      <formula>0.22</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="46" operator="lessThan">
-      <formula>0.25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R11">
-    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
-    <cfRule type="cellIs" dxfId="12" priority="54" operator="greaterThan">
-      <formula>0.78</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R22">
-    <cfRule type="top10" dxfId="11" priority="7" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R31">
-    <cfRule type="top10" dxfId="10" priority="20" rank="2"/>
-    <cfRule type="cellIs" dxfId="9" priority="49" operator="greaterThan">
-      <formula>0.78</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="45" operator="greaterThan">
-      <formula>0.75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S11">
-    <cfRule type="top10" dxfId="7" priority="13" rank="2"/>
-    <cfRule type="cellIs" dxfId="6" priority="53" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="59" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15:S22">
-    <cfRule type="top10" dxfId="4" priority="6" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S31">
-    <cfRule type="top10" dxfId="3" priority="19" rank="2"/>
-    <cfRule type="cellIs" dxfId="2" priority="52" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="greaterThan">
-      <formula>0.61</formula>
-    </cfRule>
+  <conditionalFormatting sqref="X44:X47">
+    <cfRule type="top10" dxfId="13" priority="17" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X51:X56">
+    <cfRule type="top10" dxfId="12" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35:Y40">
+    <cfRule type="top10" dxfId="11" priority="11" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44:Y47">
+    <cfRule type="top10" dxfId="10" priority="18" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y51:Y56">
+    <cfRule type="top10" dxfId="9" priority="5" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35:Z40">
+    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44:Z47">
+    <cfRule type="top10" dxfId="7" priority="19" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z51:Z56">
+    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35:AA40">
+    <cfRule type="top10" dxfId="5" priority="10" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA44:AA47">
+    <cfRule type="top10" dxfId="4" priority="20" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA51:AA56">
+    <cfRule type="top10" dxfId="3" priority="3" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB35:AB40">
+    <cfRule type="top10" dxfId="2" priority="9" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB44:AB47">
+    <cfRule type="top10" dxfId="1" priority="21" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB51:AB56">
+    <cfRule type="top10" dxfId="0" priority="2" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Models/Metrics.xlsx
+++ b/Models/Metrics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Università\Tesi magistrale\FedMix\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA2B68F-71D2-4178-A2CF-C51DC97EB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADE99C-C22E-493F-B8B9-FBD833C0DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="1485" windowWidth="16980" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11805" yWindow="1485" windowWidth="16980" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Clients" sheetId="1" r:id="rId1"/>
     <sheet name="3 Clients" sheetId="2" r:id="rId2"/>
+    <sheet name="4 Clients" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="52">
   <si>
     <t>Accuracy</t>
   </si>
@@ -176,6 +177,12 @@
   </si>
   <si>
     <t>BNS MONUSEG TNBC</t>
+  </si>
+  <si>
+    <t>MICCAI BNS MONUSEG TNBC</t>
+  </si>
+  <si>
+    <t>TNBC on MoNuSAC</t>
   </si>
 </sst>
 </file>
@@ -348,7 +355,217 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="323">
+  <dxfs count="344">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5710,783 +5927,783 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="322" priority="286" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="343" priority="286" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="321" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="321" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E9">
-    <cfRule type="top10" dxfId="320" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="341" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="top10" dxfId="319" priority="79" rank="1"/>
+    <cfRule type="top10" dxfId="340" priority="79" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E18">
-    <cfRule type="top10" dxfId="318" priority="78" rank="1"/>
+    <cfRule type="top10" dxfId="339" priority="78" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E21">
-    <cfRule type="top10" dxfId="317" priority="75" rank="1"/>
+    <cfRule type="top10" dxfId="338" priority="75" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="316" priority="320" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="337" priority="320" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="285" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="285" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="cellIs" dxfId="314" priority="214" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="214" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="top10" dxfId="313" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="334" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="top10" dxfId="312" priority="74" rank="1"/>
+    <cfRule type="top10" dxfId="333" priority="74" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="top10" dxfId="311" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="332" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F21">
-    <cfRule type="top10" dxfId="310" priority="72" rank="1"/>
+    <cfRule type="top10" dxfId="331" priority="72" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F26 I25:I26">
-    <cfRule type="cellIs" dxfId="309" priority="213" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="213" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9">
-    <cfRule type="cellIs" dxfId="308" priority="330" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="330" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="326" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="326" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G15">
-    <cfRule type="top10" dxfId="306" priority="62" rank="1"/>
+    <cfRule type="top10" dxfId="327" priority="62" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G18">
-    <cfRule type="top10" dxfId="305" priority="61" rank="1"/>
+    <cfRule type="top10" dxfId="326" priority="61" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="top10" dxfId="304" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="325" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="303" priority="212" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="212" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="209" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="209" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9">
-    <cfRule type="cellIs" dxfId="301" priority="329" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="329" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="top10" dxfId="300" priority="59" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="321" priority="59" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
-    <cfRule type="top10" dxfId="299" priority="58" rank="1"/>
+    <cfRule type="top10" dxfId="320" priority="58" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H21">
-    <cfRule type="top10" dxfId="298" priority="57" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="319" priority="57" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H26">
-    <cfRule type="cellIs" dxfId="297" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="199" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="211" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="198" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="top10" dxfId="294" priority="56" rank="1"/>
+    <cfRule type="top10" dxfId="315" priority="56" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
-    <cfRule type="top10" dxfId="293" priority="55" rank="1"/>
+    <cfRule type="top10" dxfId="314" priority="55" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="top10" dxfId="292" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="313" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I26">
-    <cfRule type="cellIs" dxfId="291" priority="197" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="197" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J9 E22">
-    <cfRule type="cellIs" dxfId="290" priority="327" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="327" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="top10" dxfId="289" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="310" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="top10" dxfId="288" priority="52" rank="1"/>
+    <cfRule type="top10" dxfId="309" priority="52" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="top10" dxfId="287" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="308" priority="51" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J26">
-    <cfRule type="cellIs" dxfId="286" priority="210" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="210" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9">
-    <cfRule type="cellIs" dxfId="285" priority="319" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="319" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N15">
-    <cfRule type="top10" dxfId="284" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="305" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N18">
-    <cfRule type="top10" dxfId="283" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="304" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21">
-    <cfRule type="top10" dxfId="282" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="303" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26">
-    <cfRule type="cellIs" dxfId="281" priority="186" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="186" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="195" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="195" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O9">
-    <cfRule type="cellIs" dxfId="279" priority="283" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="283" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="top10" dxfId="278" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="299" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O18">
-    <cfRule type="top10" dxfId="277" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="298" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O21">
-    <cfRule type="top10" dxfId="276" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="297" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O26 R25:R26">
-    <cfRule type="cellIs" dxfId="275" priority="194" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="194" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P9">
-    <cfRule type="cellIs" dxfId="274" priority="229" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="229" operator="greaterThan">
       <formula>0.764</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P15">
-    <cfRule type="top10" dxfId="273" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="294" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P18">
-    <cfRule type="cellIs" dxfId="272" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="106" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="109" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="270" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="291" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P21">
-    <cfRule type="top10" dxfId="269" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="290" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P26">
-    <cfRule type="cellIs" dxfId="268" priority="193" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="193" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="190" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="190" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q9">
-    <cfRule type="cellIs" dxfId="266" priority="282" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="282" operator="lessThan">
       <formula>0.485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q15">
-    <cfRule type="top10" dxfId="265" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="286" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q18">
-    <cfRule type="top10" dxfId="264" priority="37" bottom="1" rank="1"/>
-    <cfRule type="cellIs" dxfId="263" priority="108" operator="lessThan">
+    <cfRule type="top10" dxfId="285" priority="37" bottom="1" rank="1"/>
+    <cfRule type="cellIs" dxfId="284" priority="108" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="103" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="102" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:Q21">
-    <cfRule type="top10" dxfId="260" priority="47" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="281" priority="47" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q26">
-    <cfRule type="cellIs" dxfId="259" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="192" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="189" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="188" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="185" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R9">
-    <cfRule type="cellIs" dxfId="255" priority="280" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="280" operator="greaterThan">
       <formula>0.589</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R15">
-    <cfRule type="top10" dxfId="254" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="275" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R18">
-    <cfRule type="top10" dxfId="253" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="274" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R21">
-    <cfRule type="top10" dxfId="252" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="273" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R26">
-    <cfRule type="cellIs" dxfId="251" priority="187" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="187" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="184" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S9">
-    <cfRule type="cellIs" dxfId="249" priority="278" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="278" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="top10" dxfId="248" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="269" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S18">
-    <cfRule type="cellIs" dxfId="247" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="100" operator="greaterThan">
       <formula>0.616</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="246" priority="32" rank="1"/>
-    <cfRule type="cellIs" dxfId="245" priority="107" operator="greaterThan">
+    <cfRule type="top10" dxfId="267" priority="32" rank="1"/>
+    <cfRule type="cellIs" dxfId="266" priority="107" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="244" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="97" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:S21">
-    <cfRule type="top10" dxfId="243" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="264" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:S26">
-    <cfRule type="cellIs" dxfId="242" priority="191" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="191" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="183" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="183" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7 W13:W14">
-    <cfRule type="cellIs" dxfId="240" priority="306" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="306" operator="greaterThan">
       <formula>0.93</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W14">
-    <cfRule type="cellIs" dxfId="239" priority="295" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="295" operator="greaterThan">
       <formula>0.8715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:W16">
-    <cfRule type="top10" dxfId="238" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="259" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:W18">
-    <cfRule type="top10" dxfId="237" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="258" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W26">
-    <cfRule type="cellIs" dxfId="236" priority="182" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="182" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="173" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="173" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X7 AA6:AA7 X13:X16 AA13:AA16">
-    <cfRule type="cellIs" dxfId="234" priority="305" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="305" operator="greaterThan">
       <formula>0.768</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X16">
-    <cfRule type="cellIs" dxfId="233" priority="294" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="294" operator="greaterThan">
       <formula>0.667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X18">
-    <cfRule type="top10" dxfId="232" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="253" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X26 AA25:AA26">
-    <cfRule type="cellIs" dxfId="231" priority="181" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="181" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X26">
-    <cfRule type="cellIs" dxfId="230" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="169" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Y7 Y13:Y16">
-    <cfRule type="cellIs" dxfId="229" priority="302" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="302" operator="greaterThan">
       <formula>0.794</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Y16">
-    <cfRule type="top10" dxfId="228" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="249" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y18">
-    <cfRule type="top10" dxfId="227" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="248" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25:Y26">
-    <cfRule type="cellIs" dxfId="226" priority="180" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="180" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="177" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="177" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z7 Z13:Z16">
-    <cfRule type="cellIs" dxfId="224" priority="304" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="304" operator="lessThan">
       <formula>0.255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="top10" dxfId="223" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="244" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="top10" dxfId="222" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="243" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:Z26">
-    <cfRule type="cellIs" dxfId="221" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="179" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="176" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="175" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="172" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA16">
-    <cfRule type="cellIs" dxfId="217" priority="293" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="293" operator="greaterThan">
       <formula>0.7355</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AA16">
-    <cfRule type="top10" dxfId="216" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="237" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA18">
-    <cfRule type="top10" dxfId="215" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="236" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25:AA26">
-    <cfRule type="cellIs" dxfId="214" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="171" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="174" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AB7 AB13:AB16">
-    <cfRule type="cellIs" dxfId="212" priority="303" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="303" operator="greaterThan">
       <formula>0.61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB16">
-    <cfRule type="cellIs" dxfId="211" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="292" operator="greaterThan">
       <formula>0.5845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AB16">
-    <cfRule type="top10" dxfId="210" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="231" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17:AB18">
-    <cfRule type="top10" dxfId="209" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="230" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25:AB26">
-    <cfRule type="cellIs" dxfId="208" priority="170" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="170" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="178" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF9 AF13:AF18">
-    <cfRule type="cellIs" dxfId="206" priority="276" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="276" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AF18">
-    <cfRule type="cellIs" dxfId="205" priority="261" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="261" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF19:AF21">
-    <cfRule type="top10" dxfId="204" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="225" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AF26">
-    <cfRule type="cellIs" dxfId="203" priority="159" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="159" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="168" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="168" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AG9">
-    <cfRule type="cellIs" dxfId="201" priority="258" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="258" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AG26">
-    <cfRule type="cellIs" dxfId="200" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="154" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AK15">
-    <cfRule type="cellIs" dxfId="199" priority="251" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AK18">
-    <cfRule type="cellIs" dxfId="198" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="197" priority="270" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="270" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG18">
-    <cfRule type="cellIs" dxfId="196" priority="271" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="271" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19:AG21">
-    <cfRule type="top10" dxfId="195" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="216" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG26 AJ25:AJ26">
-    <cfRule type="cellIs" dxfId="194" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="167" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG26">
-    <cfRule type="cellIs" dxfId="193" priority="155" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="155" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH9">
-    <cfRule type="cellIs" dxfId="192" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AH18">
-    <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="249" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19:AH21">
-    <cfRule type="top10" dxfId="189" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="210" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH25:AH26">
-    <cfRule type="cellIs" dxfId="188" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="166" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="163" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="163" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6:AI9">
-    <cfRule type="cellIs" dxfId="186" priority="254" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="254" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI18">
-    <cfRule type="cellIs" dxfId="185" priority="268" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="268" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19:AI21">
-    <cfRule type="top10" dxfId="184" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="205" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI26">
-    <cfRule type="cellIs" dxfId="183" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="162" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="153" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="161" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="165" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="158" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AJ9">
-    <cfRule type="cellIs" dxfId="178" priority="253" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="253" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AJ18">
-    <cfRule type="cellIs" dxfId="177" priority="263" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="263" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="266" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="266" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ21">
-    <cfRule type="top10" dxfId="175" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="196" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AJ26">
-    <cfRule type="cellIs" dxfId="174" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="152" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="160" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="160" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="157" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="157" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AK9">
-    <cfRule type="cellIs" dxfId="171" priority="265" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="265" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="252" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="252" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13:AK18">
-    <cfRule type="cellIs" dxfId="169" priority="264" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="264" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="262" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="262" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19:AK21">
-    <cfRule type="top10" dxfId="167" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="188" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AK26">
-    <cfRule type="cellIs" dxfId="166" priority="164" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="164" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="151" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="156" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="156" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AO9">
-    <cfRule type="cellIs" dxfId="163" priority="248" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="248" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AO18">
-    <cfRule type="cellIs" dxfId="162" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="94" operator="greaterThan">
       <formula>0.92</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="87" operator="greaterThan">
       <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO21">
-    <cfRule type="top10" dxfId="160" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AO26">
-    <cfRule type="cellIs" dxfId="159" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="150" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="141" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AP9">
-    <cfRule type="cellIs" dxfId="157" priority="238" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="238" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AP26">
-    <cfRule type="cellIs" dxfId="156" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="136" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT15">
-    <cfRule type="cellIs" dxfId="155" priority="233" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="233" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO16:AT18">
-    <cfRule type="cellIs" dxfId="154" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP6:AP9">
-    <cfRule type="cellIs" dxfId="153" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="246" operator="greaterThan">
       <formula>0.604</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13:AP18">
-    <cfRule type="cellIs" dxfId="152" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="93" operator="greaterThan">
       <formula>0.7815</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP19:AP21">
-    <cfRule type="top10" dxfId="151" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="172" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26 AS25:AS26">
-    <cfRule type="cellIs" dxfId="150" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="149" operator="greaterThan">
       <formula>0.76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26">
-    <cfRule type="cellIs" dxfId="149" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="137" operator="greaterThan">
       <formula>0.563</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ9">
-    <cfRule type="cellIs" dxfId="148" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ6:AQ18">
-    <cfRule type="cellIs" dxfId="147" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:AQ21">
-    <cfRule type="top10" dxfId="145" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="166" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ25:AQ26">
-    <cfRule type="cellIs" dxfId="144" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="148" operator="greaterThan">
       <formula>0.85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="145" operator="greaterThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="142" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="236" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR13:AR18">
-    <cfRule type="cellIs" dxfId="141" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="92" operator="lessThan">
       <formula>0.32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AR21">
-    <cfRule type="top10" dxfId="140" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR25:AR26">
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="140" operator="lessThan">
       <formula>0.479</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="135" operator="lessThan">
       <formula>0.81</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="144" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="143" operator="lessThan">
       <formula>0.24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="147" operator="lessThan">
       <formula>0.195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AS9">
-    <cfRule type="cellIs" dxfId="134" priority="235" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="235" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13:AS18">
-    <cfRule type="cellIs" dxfId="133" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="89" operator="greaterThan">
       <formula>0.77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="91" operator="greaterThan">
       <formula>0.7385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AS21">
-    <cfRule type="top10" dxfId="131" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS25:AS26">
-    <cfRule type="cellIs" dxfId="130" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="139" operator="greaterThan">
       <formula>0.5675</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="134" operator="greaterThan">
       <formula>0.2205</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="142" operator="greaterThan">
       <formula>0.7605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:AT9">
-    <cfRule type="cellIs" dxfId="127" priority="234" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="234" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="243" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="243" operator="greaterThan">
       <formula>0.447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AT18">
-    <cfRule type="cellIs" dxfId="125" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="90" operator="greaterThan">
       <formula>0.5875</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="88" operator="greaterThan">
       <formula>0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19:AT21">
-    <cfRule type="top10" dxfId="123" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT25:AT26">
-    <cfRule type="cellIs" dxfId="122" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="138" operator="greaterThan">
       <formula>0.427</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="133" operator="greaterThan">
       <formula>0.1325</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="146" operator="greaterThan">
       <formula>0.62</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6498,8 +6715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EB822-0A82-415C-A215-29BF00E2AD44}">
   <dimension ref="D4:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R46" workbookViewId="0">
-      <selection activeCell="AA58" sqref="AA58"/>
+    <sheetView topLeftCell="T48" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50:AB56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8777,392 +8994,1122 @@
     <row r="61" spans="4:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E6:E11 E26:E31">
-    <cfRule type="cellIs" dxfId="119" priority="217" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="212" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="217" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="212" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E22">
+    <cfRule type="top10" dxfId="138" priority="80" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E40">
+    <cfRule type="cellIs" dxfId="137" priority="74" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E22">
-    <cfRule type="top10" dxfId="117" priority="80" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E40">
-    <cfRule type="cellIs" dxfId="116" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="79" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E47">
+    <cfRule type="top10" dxfId="135" priority="379" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E56">
+    <cfRule type="top10" dxfId="134" priority="48" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F11 I6:I11 F26:F31 I26:I31">
+    <cfRule type="cellIs" dxfId="133" priority="216" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F22">
+    <cfRule type="top10" dxfId="132" priority="81" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F31">
+    <cfRule type="cellIs" dxfId="131" priority="197" operator="greaterThan">
+      <formula>0.775</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F40">
+    <cfRule type="top10" dxfId="130" priority="54" rank="2"/>
+    <cfRule type="cellIs" dxfId="129" priority="78" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F47">
+    <cfRule type="top10" dxfId="128" priority="380" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F56">
+    <cfRule type="top10" dxfId="127" priority="47" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G11">
+    <cfRule type="cellIs" dxfId="126" priority="211" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="213" operator="greaterThan">
+      <formula>0.86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="215" operator="greaterThan">
+      <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G22">
+    <cfRule type="top10" dxfId="123" priority="82" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G31">
+    <cfRule type="cellIs" dxfId="122" priority="201" operator="greaterThan">
+      <formula>0.892</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G40">
+    <cfRule type="top10" dxfId="121" priority="53" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G47">
+    <cfRule type="top10" dxfId="120" priority="381" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G56">
+    <cfRule type="top10" dxfId="119" priority="46" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H11">
+    <cfRule type="cellIs" dxfId="118" priority="210" operator="lessThan">
+      <formula>0.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H22">
+    <cfRule type="top10" dxfId="117" priority="88" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H31">
+    <cfRule type="cellIs" dxfId="116" priority="200" operator="lessThan">
+      <formula>0.22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="195" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H40">
+    <cfRule type="top10" dxfId="114" priority="49" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H47">
+    <cfRule type="top10" dxfId="113" priority="382" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H56">
+    <cfRule type="top10" dxfId="112" priority="45" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I11">
+    <cfRule type="cellIs" dxfId="111" priority="209" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I22">
+    <cfRule type="top10" dxfId="110" priority="83" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I31">
+    <cfRule type="cellIs" dxfId="109" priority="199" operator="greaterThan">
+      <formula>0.78</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="194" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I40">
+    <cfRule type="top10" dxfId="107" priority="51" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I47">
+    <cfRule type="top10" dxfId="106" priority="383" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I56">
+    <cfRule type="top10" dxfId="105" priority="44" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="cellIs" dxfId="104" priority="214" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="208" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J22">
+    <cfRule type="top10" dxfId="102" priority="84" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J31">
+    <cfRule type="cellIs" dxfId="101" priority="198" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="193" operator="greaterThan">
+      <formula>0.61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="204" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J40">
+    <cfRule type="top10" dxfId="98" priority="50" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J47">
+    <cfRule type="top10" dxfId="97" priority="384" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J56">
+    <cfRule type="top10" dxfId="96" priority="43" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N11 N26:N31">
+    <cfRule type="cellIs" dxfId="95" priority="136" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="141" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E47">
-    <cfRule type="top10" dxfId="114" priority="379" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E56">
-    <cfRule type="top10" dxfId="113" priority="48" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F11 I6:I11 F26:F31 I26:I31">
-    <cfRule type="cellIs" dxfId="112" priority="216" operator="greaterThan">
+  <conditionalFormatting sqref="N6:N11">
+    <cfRule type="top10" dxfId="93" priority="97" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N22">
+    <cfRule type="top10" dxfId="92" priority="91" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:N31">
+    <cfRule type="top10" dxfId="91" priority="103" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:N40">
+    <cfRule type="top10" dxfId="90" priority="22" rank="2"/>
+    <cfRule type="cellIs" dxfId="89" priority="34" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:N47">
+    <cfRule type="top10" dxfId="87" priority="37" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:N56">
+    <cfRule type="top10" dxfId="86" priority="28" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11 R6:R11 O26:O31 R26:R31">
+    <cfRule type="cellIs" dxfId="85" priority="140" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F22">
-    <cfRule type="top10" dxfId="111" priority="81" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F31">
-    <cfRule type="cellIs" dxfId="110" priority="197" operator="greaterThan">
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="top10" dxfId="84" priority="96" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O22">
+    <cfRule type="top10" dxfId="83" priority="90" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O31">
+    <cfRule type="cellIs" dxfId="82" priority="126" operator="greaterThan">
       <formula>0.775</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F40">
-    <cfRule type="cellIs" dxfId="109" priority="78" operator="greaterThan">
+    <cfRule type="top10" dxfId="81" priority="102" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:O40">
+    <cfRule type="top10" dxfId="80" priority="33" rank="2"/>
+    <cfRule type="cellIs" dxfId="79" priority="35" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="108" priority="54" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F47">
-    <cfRule type="top10" dxfId="107" priority="380" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F56">
-    <cfRule type="top10" dxfId="106" priority="47" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="105" priority="215" operator="greaterThan">
-      <formula>0.85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="213" operator="greaterThan">
-      <formula>0.86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="211" operator="greaterThan">
-      <formula>0.89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G22">
-    <cfRule type="top10" dxfId="102" priority="82" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G31">
-    <cfRule type="cellIs" dxfId="101" priority="201" operator="greaterThan">
-      <formula>0.892</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G40">
-    <cfRule type="top10" dxfId="100" priority="53" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G47">
-    <cfRule type="top10" dxfId="99" priority="381" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G56">
-    <cfRule type="top10" dxfId="98" priority="46" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H11">
-    <cfRule type="cellIs" dxfId="97" priority="210" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:O47">
+    <cfRule type="top10" dxfId="78" priority="38" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:O56">
+    <cfRule type="top10" dxfId="77" priority="27" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P11">
+    <cfRule type="top10" dxfId="76" priority="95" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P22">
+    <cfRule type="top10" dxfId="75" priority="89" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P31">
+    <cfRule type="top10" dxfId="74" priority="101" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:P40">
+    <cfRule type="top10" dxfId="73" priority="32" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P47">
+    <cfRule type="top10" dxfId="72" priority="39" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51:P56">
+    <cfRule type="top10" dxfId="71" priority="26" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q11">
+    <cfRule type="cellIs" dxfId="70" priority="134" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H22">
-    <cfRule type="top10" dxfId="96" priority="88" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H31">
-    <cfRule type="cellIs" dxfId="95" priority="200" operator="lessThan">
+    <cfRule type="top10" dxfId="69" priority="94" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15:Q22">
+    <cfRule type="top10" dxfId="68" priority="87" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q31">
+    <cfRule type="top10" dxfId="67" priority="100" bottom="1" rank="2"/>
+    <cfRule type="cellIs" dxfId="66" priority="125" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="129" operator="lessThan">
       <formula>0.22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="195" operator="lessThan">
-      <formula>0.25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H40">
-    <cfRule type="top10" dxfId="93" priority="49" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H47">
-    <cfRule type="top10" dxfId="92" priority="382" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H56">
-    <cfRule type="top10" dxfId="91" priority="45" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I11">
-    <cfRule type="cellIs" dxfId="90" priority="209" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:Q40">
+    <cfRule type="top10" dxfId="64" priority="29" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:Q47">
+    <cfRule type="top10" dxfId="63" priority="40" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51:Q56">
+    <cfRule type="top10" dxfId="62" priority="25" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R11">
+    <cfRule type="cellIs" dxfId="61" priority="133" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I22">
-    <cfRule type="top10" dxfId="89" priority="83" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I31">
-    <cfRule type="cellIs" dxfId="88" priority="199" operator="greaterThan">
+    <cfRule type="top10" dxfId="60" priority="93" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:R22">
+    <cfRule type="top10" dxfId="59" priority="86" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:R31">
+    <cfRule type="cellIs" dxfId="58" priority="128" operator="greaterThan">
       <formula>0.78</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="194" operator="greaterThan">
+    <cfRule type="top10" dxfId="57" priority="99" rank="2"/>
+    <cfRule type="cellIs" dxfId="56" priority="124" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I40">
-    <cfRule type="top10" dxfId="86" priority="51" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I47">
-    <cfRule type="top10" dxfId="85" priority="383" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I56">
-    <cfRule type="top10" dxfId="84" priority="44" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="83" priority="214" operator="greaterThan">
+  <conditionalFormatting sqref="R35:R40">
+    <cfRule type="top10" dxfId="55" priority="31" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:R47">
+    <cfRule type="top10" dxfId="54" priority="41" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51:R56">
+    <cfRule type="top10" dxfId="53" priority="24" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S11">
+    <cfRule type="top10" dxfId="52" priority="92" rank="2"/>
+    <cfRule type="cellIs" dxfId="51" priority="132" operator="greaterThan">
+      <formula>0.65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="138" operator="greaterThan">
       <formula>0.68</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="208" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15:S22">
+    <cfRule type="top10" dxfId="49" priority="85" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S31">
+    <cfRule type="cellIs" dxfId="48" priority="123" operator="greaterThan">
+      <formula>0.61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="131" operator="greaterThan">
+      <formula>0.68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="127" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J22">
-    <cfRule type="top10" dxfId="81" priority="84" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J31">
-    <cfRule type="cellIs" dxfId="80" priority="193" operator="greaterThan">
-      <formula>0.61</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="198" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="204" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J40">
-    <cfRule type="top10" dxfId="77" priority="50" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J47">
-    <cfRule type="top10" dxfId="76" priority="384" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J56">
-    <cfRule type="top10" dxfId="75" priority="43" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N11 N26:N31">
-    <cfRule type="cellIs" dxfId="74" priority="141" operator="greaterThan">
+    <cfRule type="top10" dxfId="45" priority="98" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35:S40">
+    <cfRule type="top10" dxfId="44" priority="30" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:S47">
+    <cfRule type="top10" dxfId="43" priority="42" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:S56">
+    <cfRule type="top10" dxfId="42" priority="23" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W35:W40">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="136" operator="greaterThan">
+    <cfRule type="top10" dxfId="40" priority="1" rank="2"/>
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
       <formula>0.935</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N11">
-    <cfRule type="top10" dxfId="72" priority="97" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N22">
-    <cfRule type="top10" dxfId="71" priority="91" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N31">
-    <cfRule type="top10" dxfId="70" priority="103" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N40">
-    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
+  <conditionalFormatting sqref="W44:W47">
+    <cfRule type="top10" dxfId="38" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W51:W56">
+    <cfRule type="top10" dxfId="37" priority="7" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35:X40">
+    <cfRule type="top10" dxfId="36" priority="12" rank="2"/>
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44:X47">
+    <cfRule type="top10" dxfId="34" priority="17" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X51:X56">
+    <cfRule type="top10" dxfId="33" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35:Y40">
+    <cfRule type="top10" dxfId="32" priority="11" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44:Y47">
+    <cfRule type="top10" dxfId="31" priority="18" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y51:Y56">
+    <cfRule type="top10" dxfId="30" priority="5" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35:Z40">
+    <cfRule type="top10" dxfId="29" priority="8" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44:Z47">
+    <cfRule type="top10" dxfId="28" priority="19" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z51:Z56">
+    <cfRule type="top10" dxfId="27" priority="4" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35:AA40">
+    <cfRule type="top10" dxfId="26" priority="10" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA44:AA47">
+    <cfRule type="top10" dxfId="25" priority="20" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA51:AA56">
+    <cfRule type="top10" dxfId="24" priority="3" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB35:AB40">
+    <cfRule type="top10" dxfId="23" priority="9" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB44:AB47">
+    <cfRule type="top10" dxfId="22" priority="21" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB51:AB56">
+    <cfRule type="top10" dxfId="21" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5296CA44-1133-46AF-8EB1-C2E7869D3B6C}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.183</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.318</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.745</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.253</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.749</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.496</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.497</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.371</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.218</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.872</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B9">
+    <cfRule type="top10" dxfId="19" priority="13" rank="2"/>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+      <formula>0.935</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="greaterThan">
-      <formula>0.935</formula>
-    </cfRule>
-    <cfRule type="top10" dxfId="67" priority="22" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N47">
-    <cfRule type="top10" dxfId="66" priority="37" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N56">
-    <cfRule type="top10" dxfId="65" priority="28" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11 R6:R11 O26:O31 R26:R31">
-    <cfRule type="cellIs" dxfId="64" priority="140" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 C7:C9 C4:C5">
+    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="top10" dxfId="63" priority="96" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O22">
-    <cfRule type="top10" dxfId="62" priority="90" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O31">
-    <cfRule type="top10" dxfId="61" priority="102" rank="2"/>
-    <cfRule type="cellIs" dxfId="60" priority="126" operator="greaterThan">
-      <formula>0.775</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:O40">
-    <cfRule type="cellIs" dxfId="59" priority="35" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="top10" dxfId="58" priority="33" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O44:O47">
-    <cfRule type="top10" dxfId="57" priority="38" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O51:O56">
-    <cfRule type="top10" dxfId="56" priority="27" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P11">
-    <cfRule type="top10" dxfId="55" priority="95" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P22">
-    <cfRule type="top10" dxfId="54" priority="89" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P31">
-    <cfRule type="top10" dxfId="53" priority="101" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:P40">
-    <cfRule type="top10" dxfId="52" priority="32" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P44:P47">
-    <cfRule type="top10" dxfId="51" priority="39" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P51:P56">
-    <cfRule type="top10" dxfId="50" priority="26" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q11">
-    <cfRule type="cellIs" dxfId="49" priority="134" operator="lessThan">
-      <formula>0.22</formula>
-    </cfRule>
-    <cfRule type="top10" dxfId="48" priority="94" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q22">
-    <cfRule type="top10" dxfId="47" priority="87" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q31">
-    <cfRule type="top10" dxfId="46" priority="100" bottom="1" rank="2"/>
-    <cfRule type="cellIs" dxfId="45" priority="125" operator="lessThan">
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="129" operator="lessThan">
-      <formula>0.22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q35:Q40">
-    <cfRule type="top10" dxfId="43" priority="29" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:Q47">
-    <cfRule type="top10" dxfId="42" priority="40" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q51:Q56">
-    <cfRule type="top10" dxfId="41" priority="25" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R11">
-    <cfRule type="top10" dxfId="40" priority="93" rank="2"/>
-    <cfRule type="cellIs" dxfId="39" priority="133" operator="greaterThan">
-      <formula>0.78</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R22">
-    <cfRule type="top10" dxfId="38" priority="86" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R31">
-    <cfRule type="top10" dxfId="37" priority="99" rank="2"/>
-    <cfRule type="cellIs" dxfId="36" priority="124" operator="greaterThan">
-      <formula>0.75</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="128" operator="greaterThan">
-      <formula>0.78</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35:R40">
-    <cfRule type="top10" dxfId="34" priority="31" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R44:R47">
-    <cfRule type="top10" dxfId="33" priority="41" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R51:R56">
-    <cfRule type="top10" dxfId="32" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S11">
-    <cfRule type="cellIs" dxfId="31" priority="138" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-    <cfRule type="top10" dxfId="30" priority="92" rank="2"/>
-    <cfRule type="cellIs" dxfId="29" priority="132" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15:S22">
-    <cfRule type="top10" dxfId="28" priority="85" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S31">
-    <cfRule type="top10" dxfId="27" priority="98" rank="2"/>
-    <cfRule type="cellIs" dxfId="26" priority="131" operator="greaterThan">
-      <formula>0.68</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="127" operator="greaterThan">
-      <formula>0.65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="123" operator="greaterThan">
-      <formula>0.61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S35:S40">
-    <cfRule type="top10" dxfId="23" priority="30" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S44:S47">
-    <cfRule type="top10" dxfId="22" priority="42" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S51:S56">
-    <cfRule type="top10" dxfId="21" priority="23" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W35:W40">
-    <cfRule type="top10" dxfId="18" priority="1" rank="2"/>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="greaterThan">
-      <formula>0.935</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
-      <formula>0.95</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44:W47">
-    <cfRule type="top10" dxfId="17" priority="16" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W51:W56">
-    <cfRule type="top10" dxfId="16" priority="7" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X35:X40">
-    <cfRule type="top10" dxfId="14" priority="12" rank="2"/>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X44:X47">
-    <cfRule type="top10" dxfId="13" priority="17" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X51:X56">
-    <cfRule type="top10" dxfId="12" priority="6" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y35:Y40">
-    <cfRule type="top10" dxfId="11" priority="11" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y44:Y47">
-    <cfRule type="top10" dxfId="10" priority="18" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y51:Y56">
-    <cfRule type="top10" dxfId="9" priority="5" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z35:Z40">
-    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z44:Z47">
-    <cfRule type="top10" dxfId="7" priority="19" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z51:Z56">
-    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA35:AA40">
-    <cfRule type="top10" dxfId="5" priority="10" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA44:AA47">
-    <cfRule type="top10" dxfId="4" priority="20" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA51:AA56">
-    <cfRule type="top10" dxfId="3" priority="3" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB35:AB40">
-    <cfRule type="top10" dxfId="2" priority="9" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44:AB47">
-    <cfRule type="top10" dxfId="1" priority="21" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AB56">
-    <cfRule type="top10" dxfId="0" priority="2" rank="2"/>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="top10" dxfId="15" priority="17" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="top10" dxfId="14" priority="14" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="top10" dxfId="13" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="top10" dxfId="12" priority="15" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B17">
+    <cfRule type="top10" dxfId="11" priority="7" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C17">
+    <cfRule type="top10" dxfId="10" priority="8" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D17">
+    <cfRule type="top10" dxfId="9" priority="9" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E17">
+    <cfRule type="top10" dxfId="8" priority="10" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F17">
+    <cfRule type="top10" dxfId="7" priority="11" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G17">
+    <cfRule type="top10" dxfId="6" priority="12" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B32">
+    <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C32">
+    <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D32">
+    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E32">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F32">
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G32">
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
